--- a/invoices_functions/files/invoices/so_invoices2.xlsx
+++ b/invoices_functions/files/invoices/so_invoices2.xlsx
@@ -443,6993 +443,6993 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SO2810034</t>
+          <t>SO2935718</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SO2810063</t>
+          <t>SO2935978</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SO2810093</t>
+          <t>SO2935774</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SO2810119</t>
+          <t>SO2935855</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SO2810120</t>
+          <t>SO2935771</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SO2810174</t>
+          <t>SO2935775</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SO2810060</t>
+          <t>SO2935875</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SO2810789</t>
+          <t>SO2935908</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SO2810086</t>
+          <t>SO2935909</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SO2810213</t>
+          <t>SO2935898</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SO2810503</t>
+          <t>SO2935934</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SO2810228</t>
+          <t>SO2935952</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SO2810339</t>
+          <t>SO2937879</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SO2810194</t>
+          <t>SO2936769</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SO2810226</t>
+          <t>SO2936011</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SO2810337</t>
+          <t>SO2936005</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SO2810334</t>
+          <t>SO2936026</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SO2810359</t>
+          <t>SO2936025</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SO2810449</t>
+          <t>SO2936175</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO2812060</t>
+          <t>SO2936146</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SO2810572</t>
+          <t>SO2941298</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SO2810502</t>
+          <t>SO2936220</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SO2810500</t>
+          <t>SO2936257</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SO2810591</t>
+          <t>SO2936865</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SO2812608</t>
+          <t>SO2936258</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SO2810571</t>
+          <t>SO2936301</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SO2811041</t>
+          <t>SO2936238</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO2810663</t>
+          <t>SO2936429</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SO2810664</t>
+          <t>SO2936484</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SO2810688</t>
+          <t>SO2936483</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SO2814179</t>
+          <t>SO2936525</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SO2810727</t>
+          <t>SO2936604</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SO2810816</t>
+          <t>SO2936588</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SO2810778</t>
+          <t>SO2936606</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SO2810803</t>
+          <t>SO2936766</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SO2810866</t>
+          <t>SO2936631</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SO2810851</t>
+          <t>SO2936642</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SO2810909</t>
+          <t>SO2936702</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SO2810907</t>
+          <t>SO2936775</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SO2810897</t>
+          <t>SO2937369</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SO2810937</t>
+          <t>SO2944665</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SO2811663</t>
+          <t>SO2936751</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SO2810988</t>
+          <t>SO2936983</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SO2811072</t>
+          <t>SO2936794</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SO2812144</t>
+          <t>SO2936797</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SO2811095</t>
+          <t>SO2936897</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SO2811124</t>
+          <t>SO2939292</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SO2811179</t>
+          <t>SO2936969</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SO2811166</t>
+          <t>SO2936940</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SO2811228</t>
+          <t>SO2950698</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SO2812811</t>
+          <t>SO2937008</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SO2814091</t>
+          <t>SO2937664</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SO2850869</t>
+          <t>SO2936968</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SO2811364</t>
+          <t>SO2937019</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SO2811321</t>
+          <t>SO2937039</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SO2811323</t>
+          <t>SO2937038</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SO2811361</t>
+          <t>SO2938179</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SO2811389</t>
+          <t>SO2937018</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SO2815802</t>
+          <t>SO2937072</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO2811492</t>
+          <t>SO2937060</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO2811731</t>
+          <t>SO2937097</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO2811411</t>
+          <t>SO2937104</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO2811416</t>
+          <t>SO2937098</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SO2812289</t>
+          <t>SO2937017</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SO2811459</t>
+          <t>SO2937413</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SO2811480</t>
+          <t>SO2937103</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SO2812014</t>
+          <t>SO2937118</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SO2811578</t>
+          <t>SO2937128</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SO2813227</t>
+          <t>SO2937210</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO2812850</t>
+          <t>SO2937182</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO2811491</t>
+          <t>SO2937199</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO2811497</t>
+          <t>SO2937260</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO2811575</t>
+          <t>SO2939177</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO2811613</t>
+          <t>SO2937375</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO2814465</t>
+          <t>SO2937372</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SO2811574</t>
+          <t>SO2937420</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SO2811642</t>
+          <t>SO2955709</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SO2811684</t>
+          <t>SO2937374</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO2811729</t>
+          <t>SO2937394</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO2811629</t>
+          <t>SO2937368</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO2811638</t>
+          <t>SO2937393</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO2811669</t>
+          <t>SO2937392</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SO2811664</t>
+          <t>SO2937434</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO2811739</t>
+          <t>SO2937445</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO2811983</t>
+          <t>SO2937453</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO2811934</t>
+          <t>SO2938010</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SO2811788</t>
+          <t>SO2937489</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SO2811888</t>
+          <t>SO2937499</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SO2817432</t>
+          <t>SO2937490</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SO2811835</t>
+          <t>SO2937492</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO2813667</t>
+          <t>SO2937578</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO2811836</t>
+          <t>SO2937513</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO2811890</t>
+          <t>SO2937547</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SO2811940</t>
+          <t>SO2937550</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO2811932</t>
+          <t>SO2939612</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO2812055</t>
+          <t>SO2937827</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SO2825584</t>
+          <t>SO2937617</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SO2812013</t>
+          <t>SO2937616</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SO2812056</t>
+          <t>SO2937639</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SO2812066</t>
+          <t>SO2937758</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SO2812076</t>
+          <t>SO2937698</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SO2812057</t>
+          <t>SO2937736</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SO2812078</t>
+          <t>SO2937839</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SO2812152</t>
+          <t>SO2937911</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SO2812116</t>
+          <t>SO2943951</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SO2812759</t>
+          <t>SO2938730</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SO2812150</t>
+          <t>SO2938192</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SO2812146</t>
+          <t>SO2938059</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SO2812154</t>
+          <t>SO2939176</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SO2812123</t>
+          <t>SO2938204</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SO2815775</t>
+          <t>SO2938376</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SO2812145</t>
+          <t>SO2938261</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SO2812184</t>
+          <t>SO2938780</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SO2812282</t>
+          <t>SO2938318</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SO2814918</t>
+          <t>SO2938319</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SO2812294</t>
+          <t>SO2938328</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SO2812290</t>
+          <t>SO2938327</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SO2812291</t>
+          <t>SO2938385</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SO2812281</t>
+          <t>SO2938366</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SO2812357</t>
+          <t>SO2938386</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SO2812358</t>
+          <t>SO2988096</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SO2812307</t>
+          <t>SO2938362</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SO2812460</t>
+          <t>SO2938365</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SO2812491</t>
+          <t>SO2938363</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SO2812415</t>
+          <t>SO2938567</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SO2812547</t>
+          <t>SO2938522</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SO2847565</t>
+          <t>SO2938477</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SO2830446</t>
+          <t>SO2940293</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SO2812627</t>
+          <t>SO2938455</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SO2814725</t>
+          <t>SO2938410</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SO2812699</t>
+          <t>SO2938565</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SO2812779</t>
+          <t>SO2981005</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SO2812700</t>
+          <t>SO2938542</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SO2813594</t>
+          <t>SO2938519</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SO2813810</t>
+          <t>SO2938566</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SO2812761</t>
+          <t>SO2938973</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SO2825694</t>
+          <t>SO2940867</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO2814213</t>
+          <t>SO2938555</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO2813290</t>
+          <t>SO2938575</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO2825472</t>
+          <t>SO2938611</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SO2812845</t>
+          <t>SO2938609</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO2812895</t>
+          <t>SO2938645</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO2814348</t>
+          <t>SO2938624</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SO2812948</t>
+          <t>SO2939848</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO2812932</t>
+          <t>SO2938720</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SO2818971</t>
+          <t>SO2938719</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SO2812979</t>
+          <t>SO2938726</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SO2814482</t>
+          <t>SO2938653</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SO2813017</t>
+          <t>SO2938677</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SO2813024</t>
+          <t>SO2938743</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SO2813064</t>
+          <t>SO2942205</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SO2813098</t>
+          <t>SO2938767</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SO2813095</t>
+          <t>SO2938756</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SO2813103</t>
+          <t>SO2938734</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SO2813115</t>
+          <t>SO2938807</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SO2813634</t>
+          <t>SO2938769</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SO2813157</t>
+          <t>SO2938781</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SO2813183</t>
+          <t>SO2938796</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SO2813184</t>
+          <t>SO2954282</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SO2815534</t>
+          <t>SO2938797</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SO2813241</t>
+          <t>SO2938844</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SO2828515</t>
+          <t>SO2938834</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SO2813326</t>
+          <t>SO2938886</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SO2813291</t>
+          <t>SO2938843</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SO2813240</t>
+          <t>SO2942297</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SO2813312</t>
+          <t>SO2938912</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SO2813217</t>
+          <t>SO2938911</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SO2813325</t>
+          <t>SO2938986</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SO2813361</t>
+          <t>SO2938961</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SO2813362</t>
+          <t>SO2938962</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SO2813359</t>
+          <t>SO2939013</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SO2813385</t>
+          <t>SO2939231</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SO2813439</t>
+          <t>SO2939060</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SO2813412</t>
+          <t>SO2939097</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SO2813424</t>
+          <t>SO2939058</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SO2813477</t>
+          <t>SO2939081</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SO2813835</t>
+          <t>SO2939051</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SO2813642</t>
+          <t>SO2939141</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SO2813533</t>
+          <t>SO2939098</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SO2813535</t>
+          <t>SO2939153</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SO2813532</t>
+          <t>SO2939174</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SO2813663</t>
+          <t>SO2939269</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SO2813572</t>
+          <t>SO2939142</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SO2813859</t>
+          <t>SO2939175</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SO2820963</t>
+          <t>SO2939214</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SO2813665</t>
+          <t>SO2939275</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SO2813660</t>
+          <t>SO2939213</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SO2813614</t>
+          <t>SO2939301</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SO2813661</t>
+          <t>SO2939315</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SO2813664</t>
+          <t>SO2939334</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SO2813745</t>
+          <t>SO2939295</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SO2813717</t>
+          <t>SO2939354</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SO2813808</t>
+          <t>SO2939335</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SO2813712</t>
+          <t>SO2939836</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SO2813713</t>
+          <t>SO2939356</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SO2813749</t>
+          <t>SO2939407</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SO2813746</t>
+          <t>SO2939410</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SO2813811</t>
+          <t>SO2939426</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SO2813747</t>
+          <t>SO2939445</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SO2813846</t>
+          <t>SO2939516</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SO2813805</t>
+          <t>SO2939661</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SO2813803</t>
+          <t>SO2939589</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SO2813887</t>
+          <t>SO2939638</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SO2813963</t>
+          <t>SO2939651</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SO2813962</t>
+          <t>SO2956081</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SO2813836</t>
+          <t>SO2957992</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SO2813888</t>
+          <t>SO2939645</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SO2813971</t>
+          <t>SO2941256</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SO2813960</t>
+          <t>SO2994607</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SO2814333</t>
+          <t>SO2939675</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SO2816381</t>
+          <t>SO2939827</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SO2813968</t>
+          <t>SO2941375</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SO2814021</t>
+          <t>SO2940689</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SO2813989</t>
+          <t>SO2939858</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SO2818056</t>
+          <t>SO2939901</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SO2813998</t>
+          <t>SO2939980</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SO2814068</t>
+          <t>SO2944599</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SO2814000</t>
+          <t>SO2940089</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SO2814020</t>
+          <t>SO2958828</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SO2814022</t>
+          <t>SO2940205</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SO2814066</t>
+          <t>SO2940226</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SO2814069</t>
+          <t>SO2940189</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SO2814261</t>
+          <t>SO2955863</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SO2814165</t>
+          <t>SO2940225</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SO2814140</t>
+          <t>SO2940264</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SO2814090</t>
+          <t>SO2940428</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SO2814127</t>
+          <t>SO2942029</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SO2814125</t>
+          <t>SO2940363</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SO2814575</t>
+          <t>SO2940355</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SO2814155</t>
+          <t>SO2940407</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SO2814212</t>
+          <t>SO2940458</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SO2814277</t>
+          <t>SO2940408</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SO2833987</t>
+          <t>SO2940387</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SO2816890</t>
+          <t>SO2940480</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SO2814332</t>
+          <t>SO2940409</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SO2814356</t>
+          <t>SO2940406</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SO2814467</t>
+          <t>SO2940426</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SO2824451</t>
+          <t>SO2940436</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SO2815856</t>
+          <t>SO2940444</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SO2814469</t>
+          <t>SO2940532</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SO2814468</t>
+          <t>SO2940487</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SO2814381</t>
+          <t>SO2940454</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SO2814394</t>
+          <t>SO2959577</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SO2815522</t>
+          <t>SO2940513</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SO2814499</t>
+          <t>SO2943702</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>SO2814498</t>
+          <t>SO2941257</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SO2814552</t>
+          <t>SO2940550</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>SO2814597</t>
+          <t>SO2940561</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SO2814644</t>
+          <t>SO2940565</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SO2814643</t>
+          <t>SO2940631</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SO2814864</t>
+          <t>SO2940579</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SO2814769</t>
+          <t>SO2940720</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SO2814748</t>
+          <t>SO2940633</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SO2814834</t>
+          <t>SO2940675</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SO2814770</t>
+          <t>SO2940661</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SO2814801</t>
+          <t>SO2940721</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SO2814968</t>
+          <t>SO2940733</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SO2816331</t>
+          <t>SO2940709</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SO2817824</t>
+          <t>SO2940710</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SO2814908</t>
+          <t>SO2940752</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SO2814970</t>
+          <t>SO2940772</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SO2816525</t>
+          <t>SO2940825</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SO2814990</t>
+          <t>SO2940803</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SO2814955</t>
+          <t>SO2940813</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SO2814956</t>
+          <t>SO2940794</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SO2815025</t>
+          <t>SO2940836</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SO2815145</t>
+          <t>SO2941251</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SO2815026</t>
+          <t>SO2941412</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SO2815078</t>
+          <t>SO2941056</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SO2815097</t>
+          <t>SO2941057</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SO2817053</t>
+          <t>SO2941071</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SO2818067</t>
+          <t>SO2941134</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SO2815200</t>
+          <t>SO2941079</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SO2815163</t>
+          <t>SO2941054</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SO2815195</t>
+          <t>SO2963099</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SO2815197</t>
+          <t>SO2941116</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SO2815233</t>
+          <t>SO2941128</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SO2828679</t>
+          <t>SO2941151</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SO2815231</t>
+          <t>SO2941133</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SO2815366</t>
+          <t>SO2941162</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SO2815401</t>
+          <t>SO2941161</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SO2815493</t>
+          <t>SO2941152</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SO2815487</t>
+          <t>SO2941145</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SO2815490</t>
+          <t>SO2941144</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SO2815439</t>
+          <t>SO2941154</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SO2815523</t>
+          <t>SO2941175</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SO2815450</t>
+          <t>SO2941205</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SO2815562</t>
+          <t>SO2941196</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SO2815488</t>
+          <t>SO2941188</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SO2815521</t>
+          <t>SO2941281</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SO2815664</t>
+          <t>SO2941236</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SO2835661</t>
+          <t>SO2941238</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SO2815660</t>
+          <t>SO2942347</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SO2815670</t>
+          <t>SO2941293</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SO2815656</t>
+          <t>SO2941344</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SO2819535</t>
+          <t>SO2941300</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SO2815658</t>
+          <t>SO2941348</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SO2815695</t>
+          <t>SO2941362</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SO2815705</t>
+          <t>SO2941382</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SO2815696</t>
+          <t>SO2941855</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SO2815713</t>
+          <t>SO2944793</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SO2815795</t>
+          <t>SO2941429</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SO2815832</t>
+          <t>SO2941505</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SO2815793</t>
+          <t>SO2941490</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SO2815821</t>
+          <t>SO2941506</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SO2815822</t>
+          <t>SO2941621</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SO2815824</t>
+          <t>SO2941523</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>SO2815829</t>
+          <t>SO2941538</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SO2815949</t>
+          <t>SO2941854</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SO2815831</t>
+          <t>SO2941823</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SO2815840</t>
+          <t>SO2945017</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SO2815855</t>
+          <t>SO2956542</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SO2815833</t>
+          <t>SO2941981</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SO2815871</t>
+          <t>SO2941911</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SO2815954</t>
+          <t>SO2941919</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SO2815956</t>
+          <t>SO2941935</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SO2825182</t>
+          <t>SO2941968</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SO2816047</t>
+          <t>SO2941971</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SO2815974</t>
+          <t>SO2941980</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SO2815951</t>
+          <t>SO2941969</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SO2815948</t>
+          <t>SO2943086</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SO2815980</t>
+          <t>SO2941996</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SO2818007</t>
+          <t>SO2942015</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SO2815978</t>
+          <t>SO2942030</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SO2817567</t>
+          <t>SO2942018</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SO2816076</t>
+          <t>SO2942162</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SO2816221</t>
+          <t>SO2942107</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SO2816151</t>
+          <t>SO2942108</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SO2816101</t>
+          <t>SO2942127</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SO2820456</t>
+          <t>SO2942164</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SO2816170</t>
+          <t>SO2942175</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SO2816171</t>
+          <t>SO2942279</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SO2816150</t>
+          <t>SO2942275</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SO2816222</t>
+          <t>SO2942348</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SO2816208</t>
+          <t>SO2942309</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SO2816276</t>
+          <t>SO2942268</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SO2816272</t>
+          <t>SO2942254</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SO2816385</t>
+          <t>SO2942276</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SO2816303</t>
+          <t>SO2943722</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SO2817237</t>
+          <t>SO2942324</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SO2816284</t>
+          <t>SO2942339</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SO2816541</t>
+          <t>SO2942440</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SO2816295</t>
+          <t>SO2965126</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SO2817006</t>
+          <t>SO2942474</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SO2816382</t>
+          <t>SO2942424</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SO2816387</t>
+          <t>SO2942515</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>SO2816408</t>
+          <t>SO2943688</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SO2816309</t>
+          <t>SO2942449</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SO2818427</t>
+          <t>SO2942451</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SO2816918</t>
+          <t>SO2942512</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SO2816379</t>
+          <t>SO2942509</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SO2816409</t>
+          <t>SO2942514</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SO2816380</t>
+          <t>SO2942529</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SO2816532</t>
+          <t>SO2942531</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SO2817119</t>
+          <t>SO2943563</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SO2816453</t>
+          <t>SO2942559</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SO2816539</t>
+          <t>SO2942568</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SO2816459</t>
+          <t>SO2942567</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SO2819260</t>
+          <t>SO2942587</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SO2816570</t>
+          <t>SO2942586</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SO2816571</t>
+          <t>SO2942569</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SO2816693</t>
+          <t>SO2942581</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>SO2816673</t>
+          <t>SO2942725</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SO2816687</t>
+          <t>SO2942782</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>SO2817281</t>
+          <t>SO2942667</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SO2816700</t>
+          <t>SO2942674</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SO2816740</t>
+          <t>SO2942623</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SO2816786</t>
+          <t>SO2942685</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>SO2816845</t>
+          <t>SO2945940</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SO2816832</t>
+          <t>SO2949436</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SO2817208</t>
+          <t>SO2942742</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SO2850116</t>
+          <t>SO2942849</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>SO2828441</t>
+          <t>SO2942817</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SO2816941</t>
+          <t>SO2948749</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SO2816940</t>
+          <t>SO2942908</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>SO2816984</t>
+          <t>SO2942885</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>SO2823352</t>
+          <t>SO2942868</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SO2830442</t>
+          <t>SO2945405</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>SO2817062</t>
+          <t>SO2942923</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SO2817102</t>
+          <t>SO2942963</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SO2817109</t>
+          <t>SO2942921</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SO2817125</t>
+          <t>SO2942942</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SO2820043</t>
+          <t>SO2942960</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SO2817103</t>
+          <t>SO2942962</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SO2817486</t>
+          <t>SO2942993</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SO2817173</t>
+          <t>SO2942995</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SO2819927</t>
+          <t>SO2943100</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SO2817238</t>
+          <t>SO2943099</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>SO2817235</t>
+          <t>SO2943087</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>SO2817714</t>
+          <t>SO2943090</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SO2817269</t>
+          <t>SO2943130</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SO2817282</t>
+          <t>SO2943142</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SO2817387</t>
+          <t>SO2947965</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SO2817337</t>
+          <t>SO2962134</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>SO2817384</t>
+          <t>SO2943166</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SO2817389</t>
+          <t>SO2943290</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SO2817318</t>
+          <t>SO2943272</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SO2817319</t>
+          <t>SO2943307</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SO2824673</t>
+          <t>SO2947539</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SO2817339</t>
+          <t>SO2943314</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SO2817391</t>
+          <t>SO2957485</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SO2817385</t>
+          <t>SO2944161</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SO2817409</t>
+          <t>SO2943397</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SO2818053</t>
+          <t>SO2943412</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SO2817456</t>
+          <t>SO2943510</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SO2830219</t>
+          <t>SO2950120</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SO2817541</t>
+          <t>SO2943537</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SO2817598</t>
+          <t>SO2943541</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SO2817594</t>
+          <t>SO2945181</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SO2817632</t>
+          <t>SO2943691</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SO2817661</t>
+          <t>SO2943701</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SO2817703</t>
+          <t>SO2943668</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SO2817705</t>
+          <t>SO2943760</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SO2819495</t>
+          <t>SO2946367</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SO2818107</t>
+          <t>SO2943726</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SO2817760</t>
+          <t>SO2943734</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SO2817918</t>
+          <t>SO2943784</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SO2817823</t>
+          <t>SO2943749</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SO2817967</t>
+          <t>SO2943808</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SO2817871</t>
+          <t>SO2943762</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SO2818464</t>
+          <t>SO2943750</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SO2817868</t>
+          <t>SO2943783</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SO2818252</t>
+          <t>SO2948021</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SO2817911</t>
+          <t>SO2943782</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SO2817915</t>
+          <t>SO2943887</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SO2817914</t>
+          <t>SO2943911</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SO2817905</t>
+          <t>SO2943989</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SO2818006</t>
+          <t>SO2943979</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SO2817907</t>
+          <t>SO2943996</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SO2817942</t>
+          <t>SO2943991</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SO2817957</t>
+          <t>SO2948330</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SO2817941</t>
+          <t>SO2946409</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SO2818055</t>
+          <t>SO2944133</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SO2830232</t>
+          <t>SO2944141</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SO2822256</t>
+          <t>SO2944176</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SO2818049</t>
+          <t>SO2944192</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SO2818057</t>
+          <t>SO2944229</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SO2818124</t>
+          <t>SO2944191</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SO2818340</t>
+          <t>SO2944658</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SO2818048</t>
+          <t>SO2944412</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SO2818094</t>
+          <t>SO2951603</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SO2818068</t>
+          <t>SO2944346</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SO2818095</t>
+          <t>SO2944435</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SO2818123</t>
+          <t>SO2944418</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SO2818506</t>
+          <t>SO3005356</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SO2818324</t>
+          <t>SO2944597</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SO2818169</t>
+          <t>SO2944662</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SO2818122</t>
+          <t>SO2944690</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SO2818144</t>
+          <t>SO2947394</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SO2818162</t>
+          <t>SO2944843</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SO2818235</t>
+          <t>SO2949648</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SO2821450</t>
+          <t>SO2944971</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SO2818164</t>
+          <t>SO2944801</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SO2818209</t>
+          <t>SO2946647</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SO2818339</t>
+          <t>SO2944892</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SO2818316</t>
+          <t>SO2944860</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SO2818371</t>
+          <t>SO2944878</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SO2818454</t>
+          <t>SO2948259</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SO2820101</t>
+          <t>SO2944973</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SO2818424</t>
+          <t>SO2944975</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SO2818463</t>
+          <t>SO2944952</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SO2818423</t>
+          <t>SO2945030</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SO2818498</t>
+          <t>SO2945061</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SO2818582</t>
+          <t>SO2945112</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SO2818507</t>
+          <t>SO2945050</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SO2818511</t>
+          <t>SO2945113</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SO2818509</t>
+          <t>SO2945185</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SO2818605</t>
+          <t>SO2945103</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SO2820914</t>
+          <t>SO2945132</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SO2820452</t>
+          <t>SO2945197</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SO2818667</t>
+          <t>SO2945186</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SO2818704</t>
+          <t>SO2945194</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SO2821056</t>
+          <t>SO2945177</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SO2819067</t>
+          <t>SO2945211</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SO2818784</t>
+          <t>SO2945199</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SO2818835</t>
+          <t>SO2945195</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SO2818814</t>
+          <t>SO2945217</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SO2842680</t>
+          <t>SO2945304</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SO2818892</t>
+          <t>SO2945378</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SO2819069</t>
+          <t>SO2945372</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SO2824332</t>
+          <t>SO2945345</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SO2820675</t>
+          <t>SO2948189</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SO2824758</t>
+          <t>SO2945433</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SO2818926</t>
+          <t>SO2945472</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SO2821777</t>
+          <t>SO2945544</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SO2819016</t>
+          <t>SO2959209</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SO2819001</t>
+          <t>SO2945609</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SO2819051</t>
+          <t>SO2945627</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SO2819968</t>
+          <t>SO2947989</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SO2819420</t>
+          <t>SO2945610</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SO2819185</t>
+          <t>SO2945674</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SO2819146</t>
+          <t>SO2946857</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SO2819214</t>
+          <t>SO2953667</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SO2819212</t>
+          <t>SO2945772</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SO2819228</t>
+          <t>SO2969907</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SO2838097</t>
+          <t>SO2948210</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SO2819313</t>
+          <t>SO2945863</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SO2819368</t>
+          <t>SO2945883</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SO2821006</t>
+          <t>SO2945999</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SO2819374</t>
+          <t>SO2945972</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SO2847600</t>
+          <t>SO2945986</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SO2819498</t>
+          <t>SO2946014</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SO2819497</t>
+          <t>SO2946842</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SO2819846</t>
+          <t>SO2946087</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SO2819570</t>
+          <t>SO2946126</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SO2819910</t>
+          <t>SO2946088</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SO2819563</t>
+          <t>SO2948510</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SO2819686</t>
+          <t>SO2946155</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SO2820115</t>
+          <t>SO2946156</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SO2819621</t>
+          <t>SO2946143</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SO2821870</t>
+          <t>SO2946188</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SO2831154</t>
+          <t>SO2946219</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SO2819678</t>
+          <t>SO2946335</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SO2819716</t>
+          <t>SO2946274</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SO2826243</t>
+          <t>SO2946317</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SO2819774</t>
+          <t>SO2946275</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SO2819818</t>
+          <t>SO2946408</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SO2819847</t>
+          <t>SO2946449</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SO2819925</t>
+          <t>SO2946473</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SO2819848</t>
+          <t>SO2946531</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SO2821945</t>
+          <t>SO2946472</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SO2820576</t>
+          <t>SO2946476</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SO2819912</t>
+          <t>SO2946491</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SO2819880</t>
+          <t>SO2946558</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SO2819973</t>
+          <t>SO2946543</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SO2819909</t>
+          <t>SO2965302</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SO2820760</t>
+          <t>SO2946603</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SO2820044</t>
+          <t>SO2946648</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SO2819926</t>
+          <t>SO2946720</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SO2821025</t>
+          <t>SO2946721</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SO2820016</t>
+          <t>SO2946649</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>SO2819965</t>
+          <t>SO2946719</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>SO2820041</t>
+          <t>SO2946717</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>SO2823176</t>
+          <t>SO2946741</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>SO2822136</t>
+          <t>SO2946752</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>SO2820116</t>
+          <t>SO2946778</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SO2820202</t>
+          <t>SO2946856</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>SO2820160</t>
+          <t>SO2946794</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SO2820159</t>
+          <t>SO2946792</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>SO2821008</t>
+          <t>SO2946843</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>SO2820200</t>
+          <t>SO2946863</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>SO2820176</t>
+          <t>SO2946861</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>SO2820324</t>
+          <t>SO2947027</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>SO2820411</t>
+          <t>SO2963546</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>SO2820699</t>
+          <t>SO2947324</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>SO2841440</t>
+          <t>SO2948057</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>SO2820458</t>
+          <t>SO2947055</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>SO2820482</t>
+          <t>SO2947111</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>SO2820626</t>
+          <t>SO2947096</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>SO2820508</t>
+          <t>SO2947086</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>SO2833297</t>
+          <t>SO2947231</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>SO2820512</t>
+          <t>SO2947233</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>SO2820523</t>
+          <t>SO2947148</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>SO2820577</t>
+          <t>SO2947227</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>SO2820640</t>
+          <t>SO2947242</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>SO2820762</t>
+          <t>SO2947229</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>SO2820629</t>
+          <t>SO2947271</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>SO2820635</t>
+          <t>SO2947529</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>SO2820633</t>
+          <t>SO2947257</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>SO2820661</t>
+          <t>SO2947259</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>SO2820761</t>
+          <t>SO2947291</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>SO2820670</t>
+          <t>SO2947306</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>SO2820672</t>
+          <t>SO2947360</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>SO2820717</t>
+          <t>SO2948539</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>SO2822646</t>
+          <t>SO2947445</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>SO2820757</t>
+          <t>SO2947433</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>SO2820752</t>
+          <t>SO2947435</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>SO2820708</t>
+          <t>SO2948188</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>SO2823479</t>
+          <t>SO2947508</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>SO2820791</t>
+          <t>SO2947588</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>SO2822343</t>
+          <t>SO2947554</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>SO2820729</t>
+          <t>SO2947552</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>SO2820756</t>
+          <t>SO2947703</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>SO2821896</t>
+          <t>SO2998508</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>SO2820862</t>
+          <t>SO2947673</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>SO2820828</t>
+          <t>SO2947765</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>SO2820860</t>
+          <t>SO2947767</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>SO2820859</t>
+          <t>SO2949240</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>SO2820939</t>
+          <t>SO2947909</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>SO2821011</t>
+          <t>SO2947966</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>SO2821005</t>
+          <t>SO2960666</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>SO2821038</t>
+          <t>SO2948060</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>SO2821037</t>
+          <t>SO2948077</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>SO2822995</t>
+          <t>SO2948158</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>SO2821855</t>
+          <t>SO2948213</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>SO2829967</t>
+          <t>SO2950486</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>SO2821195</t>
+          <t>SO2948260</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>SO2822176</t>
+          <t>SO2948261</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>SO2821285</t>
+          <t>SO2948249</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>SO2821263</t>
+          <t>SO2948262</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>SO2838968</t>
+          <t>SO2948274</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>SO2835153</t>
+          <t>SO2948369</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>SO2825550</t>
+          <t>SO2948360</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>SO2821324</t>
+          <t>SO2948450</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>SO2821378</t>
+          <t>SO2948449</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>SO2821751</t>
+          <t>SO2948448</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>SO2822426</t>
+          <t>SO2948509</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>SO2841189</t>
+          <t>SO2949339</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>SO2821503</t>
+          <t>SO2948555</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>SO2821451</t>
+          <t>SO2952459</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>SO2825753</t>
+          <t>SO2948601</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>SO2821580</t>
+          <t>SO2948808</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>SO2821750</t>
+          <t>SO2948656</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>SO2821579</t>
+          <t>SO2948750</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>SO2821648</t>
+          <t>SO2948726</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>SO2821601</t>
+          <t>SO2948764</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>SO2821716</t>
+          <t>SO2948738</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>SO2821727</t>
+          <t>SO2948823</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>SO2821797</t>
+          <t>SO2948802</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>SO2821719</t>
+          <t>SO2948880</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>SO2823848</t>
+          <t>SO2948842</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>SO2821898</t>
+          <t>SO2948850</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>SO2821773</t>
+          <t>SO2948881</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>SO2821774</t>
+          <t>SO2954436</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>SO2821844</t>
+          <t>SO2955867</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>SO2821854</t>
+          <t>SO2949006</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>SO2821946</t>
+          <t>SO2949039</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>SO2836826</t>
+          <t>SO2952461</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>SO2821913</t>
+          <t>SO2949123</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>SO2853751</t>
+          <t>SO2949062</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>SO2821999</t>
+          <t>SO2950774</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>SO2821995</t>
+          <t>SO2949086</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>SO2821994</t>
+          <t>SO2949061</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>SO2822114</t>
+          <t>SO2993083</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>SO2822073</t>
+          <t>SO2951543</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>SO2822020</t>
+          <t>SO2949136</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>SO2822992</t>
+          <t>SO2949177</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>SO2823104</t>
+          <t>SO2949256</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>SO2825049</t>
+          <t>SO2950420</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>SO2822194</t>
+          <t>SO2949337</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>SO2822227</t>
+          <t>SO2949296</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>SO2827570</t>
+          <t>SO2949408</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>SO2822342</t>
+          <t>SO2989560</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>SO2822258</t>
+          <t>SO2949512</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>SO2822229</t>
+          <t>SO2949565</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>SO2822321</t>
+          <t>SO2950367</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>SO2822425</t>
+          <t>SO2949692</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>SO2849704</t>
+          <t>SO2949701</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>SO2822458</t>
+          <t>SO2949756</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>SO2822501</t>
+          <t>SO2949760</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>SO2822424</t>
+          <t>SO2949789</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>SO2822452</t>
+          <t>SO2949843</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>SO2832997</t>
+          <t>SO2949858</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>SO2822590</t>
+          <t>SO2949980</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SO2822531</t>
+          <t>SO2950042</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>SO2822527</t>
+          <t>SO2950137</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>SO2824634</t>
+          <t>SO2950162</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>SO2822528</t>
+          <t>SO2950075</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>SO2823640</t>
+          <t>SO2950069</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>SO2822649</t>
+          <t>SO2950772</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>SO2822997</t>
+          <t>SO2950122</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>SO2822689</t>
+          <t>SO2955359</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>SO2822647</t>
+          <t>SO2950212</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>SO2822753</t>
+          <t>SO2950236</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>SO2822750</t>
+          <t>SO2950297</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>SO2822758</t>
+          <t>SO2950250</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>SO2822825</t>
+          <t>SO2950251</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>SO2822864</t>
+          <t>SO2950305</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>SO2822942</t>
+          <t>SO2995167</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>SO2826442</t>
+          <t>SO2951015</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>SO2831988</t>
+          <t>SO2950517</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>SO2822943</t>
+          <t>SO2950463</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>SO2832563</t>
+          <t>SO2950530</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>SO2822998</t>
+          <t>SO2950465</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>SO2822993</t>
+          <t>SO2950467</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>SO2823082</t>
+          <t>SO2963806</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>SO2823175</t>
+          <t>SO2950519</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>SO2823173</t>
+          <t>SO2950636</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>SO2823921</t>
+          <t>SO2950728</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>SO2823196</t>
+          <t>SO2950543</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>SO2823174</t>
+          <t>SO2954914</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>SO2823081</t>
+          <t>SO2950605</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>SO2823474</t>
+          <t>SO2950589</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>SO2823168</t>
+          <t>SO2960073</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>SO2823171</t>
+          <t>SO2950623</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>SO2823169</t>
+          <t>SO2950694</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>SO2828287</t>
+          <t>SO2950727</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>SO2826418</t>
+          <t>SO2950697</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>SO2823170</t>
+          <t>SO2952060</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>SO2823167</t>
+          <t>SO2950729</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>SO2823217</t>
+          <t>SO2950731</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>SO2823229</t>
+          <t>SO2950764</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>SO2823187</t>
+          <t>SO2950865</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>SO2823219</t>
+          <t>SO2950801</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>SO2823240</t>
+          <t>SO2951531</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>SO2823215</t>
+          <t>SO2950898</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SO2823354</t>
+          <t>SO2950958</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>SO2823351</t>
+          <t>SO2950929</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>SO2825732</t>
+          <t>SO2950989</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>SO2823793</t>
+          <t>SO2950990</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>SO2832414</t>
+          <t>SO2951026</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>SO2823523</t>
+          <t>SO2951108</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>SO2823569</t>
+          <t>SO2951003</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>SO2836708</t>
+          <t>SO2951049</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>SO2823618</t>
+          <t>SO2951099</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>SO2851624</t>
+          <t>SO2951100</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>SO2824759</t>
+          <t>SO2951103</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>SO2823845</t>
+          <t>SO2951106</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>SO2823846</t>
+          <t>SO2951079</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>SO2823970</t>
+          <t>SO2951119</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>SO2823972</t>
+          <t>SO2955317</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>SO2824095</t>
+          <t>SO2951139</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>SO2836008</t>
+          <t>SO2951173</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>SO2824125</t>
+          <t>SO2951203</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>SO2831149</t>
+          <t>SO2999560</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>SO2824087</t>
+          <t>SO2951204</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>SO2824091</t>
+          <t>SO2951231</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>SO2824070</t>
+          <t>SO2951257</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>SO2824136</t>
+          <t>SO2951323</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>SO2824149</t>
+          <t>SO2951285</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>SO2824298</t>
+          <t>SO2951335</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>SO2824188</t>
+          <t>SO2951358</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>SO2824245</t>
+          <t>SO2951390</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>SO2824274</t>
+          <t>SO2951421</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>SO2824300</t>
+          <t>SO2951420</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>SO2828267</t>
+          <t>SO2951449</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>SO2824305</t>
+          <t>SO2951546</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>SO2824327</t>
+          <t>SO2951571</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>SO2824430</t>
+          <t>SO2951570</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>SO2824420</t>
+          <t>SO2952059</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>SO2825301</t>
+          <t>SO2958065</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>SO2828345</t>
+          <t>SO2969763</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>SO2824433</t>
+          <t>SO2954983</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>SO2824819</t>
+          <t>SO2951721</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>SO2824413</t>
+          <t>SO2951750</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>SO2824415</t>
+          <t>SO2991465</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>SO2824736</t>
+          <t>SO2951848</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>SO2824419</t>
+          <t>SO2985472</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>SO2824410</t>
+          <t>SO2951876</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>SO2824403</t>
+          <t>SO2951891</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>SO2824514</t>
+          <t>SO2951920</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>SO2824588</t>
+          <t>SO2951998</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>SO2824513</t>
+          <t>SO2951975</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>SO2824570</t>
+          <t>SO2952081</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>SO2826874</t>
+          <t>SO2952037</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>SO2824515</t>
+          <t>SO2952114</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>SO2824587</t>
+          <t>SO2952111</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>SO2824585</t>
+          <t>SO2952904</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>SO2824696</t>
+          <t>SO2952082</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>SO2825047</t>
+          <t>SO2964439</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>SO2826132</t>
+          <t>SO2952138</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>SO2825298</t>
+          <t>SO2952170</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>SO2824721</t>
+          <t>SO2952168</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>SO2824735</t>
+          <t>SO2952284</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>SO2841890</t>
+          <t>SO2952206</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>SO2824821</t>
+          <t>SO2952285</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>SO2824782</t>
+          <t>SO2953906</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>SO2824950</t>
+          <t>SO2952298</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>SO2824926</t>
+          <t>SO2952578</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>SO2826018</t>
+          <t>SO2952380</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>SO2824923</t>
+          <t>SO2952312</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>SO2824929</t>
+          <t>SO2952385</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>SO2842993</t>
+          <t>SO2952383</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>SO2825219</t>
+          <t>SO2952399</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>SO2825061</t>
+          <t>SO2952444</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>SO2825051</t>
+          <t>SO2952445</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>SO2825189</t>
+          <t>SO2952751</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>SO2825048</t>
+          <t>SO3001690</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>SO2825106</t>
+          <t>SO2952519</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>SO2825062</t>
+          <t>SO2952524</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>SO2825107</t>
+          <t>SO2952551</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>SO2825109</t>
+          <t>SO2952650</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>SO2825041</t>
+          <t>SO2952626</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>SO2828039</t>
+          <t>SO2952570</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>SO2829683</t>
+          <t>SO2952569</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>SO2825110</t>
+          <t>SO2952649</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>SO2825157</t>
+          <t>SO2952659</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>SO2825136</t>
+          <t>SO2952651</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>SO2825059</t>
+          <t>SO2952701</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>SO2825143</t>
+          <t>SO2952714</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>SO2825167</t>
+          <t>SO2956646</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>SO2850584</t>
+          <t>SO2952760</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>SO2825155</t>
+          <t>SO2952805</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>SO2825152</t>
+          <t>SO2952796</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>SO2825188</t>
+          <t>SO2952842</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>SO2830218</t>
+          <t>SO2952855</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>SO2825218</t>
+          <t>SO2952957</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>SO2825695</t>
+          <t>SO2952960</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>SO2825342</t>
+          <t>SO2953040</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>SO2825327</t>
+          <t>SO2953039</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>SO2825454</t>
+          <t>SO2953043</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>SO2825450</t>
+          <t>SO2957180</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>SO2825356</t>
+          <t>SO2982222</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>SO2825457</t>
+          <t>SO2953075</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>SO2825511</t>
+          <t>SO2953044</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>SO2825448</t>
+          <t>SO2953106</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>SO2825402</t>
+          <t>SO2953133</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>SO2825471</t>
+          <t>SO2953161</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>SO2825517</t>
+          <t>SO2953143</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>SO2825541</t>
+          <t>SO2955607</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>SO2825510</t>
+          <t>SO2996306</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>SO2825977</t>
+          <t>SO2953232</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>SO2825540</t>
+          <t>SO2953221</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>SO2825549</t>
+          <t>SO2953258</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>SO2825613</t>
+          <t>SO2953334</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>SO2825612</t>
+          <t>SO2953310</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>SO2825599</t>
+          <t>SO2953442</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>SO2826293</t>
+          <t>SO2953463</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>SO2826148</t>
+          <t>SO2953561</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>SO2825709</t>
+          <t>SO2953505</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>SO2829815</t>
+          <t>SO2953495</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>SO2825717</t>
+          <t>SO2953547</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>SO2849414</t>
+          <t>SO2953533</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>SO2825752</t>
+          <t>SO2953553</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>SO2825806</t>
+          <t>SO2953588</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>SO2825805</t>
+          <t>SO2953639</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>SO2825872</t>
+          <t>SO2955648</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>SO2826095</t>
+          <t>SO2953789</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>SO2828281</t>
+          <t>SO2953678</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>SO2825952</t>
+          <t>SO2953688</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>SO2827017</t>
+          <t>SO2953776</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>SO2826033</t>
+          <t>SO2954064</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>SO2834546</t>
+          <t>SO2954882</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>SO2827468</t>
+          <t>SO2953987</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>SO2829124</t>
+          <t>SO2954031</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>SO2826245</t>
+          <t>SO2954164</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>SO2825969</t>
+          <t>SO2955052</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>SO2826050</t>
+          <t>SO2954423</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>SO2828996</t>
+          <t>SO2957336</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>SO2844355</t>
+          <t>SO2954118</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>SO2826135</t>
+          <t>SO2953863</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>SO2826261</t>
+          <t>SO2953943</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>SO2829555</t>
+          <t>SO2953613</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>SO2826170</t>
+          <t>SO2953768</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>SO2826244</t>
+          <t>SO2953769</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>SO2826201</t>
+          <t>SO2953973</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>SO2841248</t>
+          <t>SO2953928</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>SO2826220</t>
+          <t>SO2953988</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>SO2826415</t>
+          <t>SO2953990</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>SO2826441</t>
+          <t>SO2954122</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>SO2826423</t>
+          <t>SO2954109</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>SO2826414</t>
+          <t>SO2955437</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>SO2826422</t>
+          <t>SO2956305</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>SO2826412</t>
+          <t>SO2953874</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>SO2829133</t>
+          <t>SO2954567</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>SO2826410</t>
+          <t>SO2954077</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>SO2826604</t>
+          <t>SO2955611</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>SO2826534</t>
+          <t>SO2954191</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>SO2826537</t>
+          <t>SO2954199</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>SO2826538</t>
+          <t>SO2954284</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>SO2827166</t>
+          <t>SO2954693</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>SO2826535</t>
+          <t>SO2954225</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>SO2834517</t>
+          <t>SO2954273</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>SO2826673</t>
+          <t>SO2954288</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>SO2826876</t>
+          <t>SO2954363</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>SO2828269</t>
+          <t>SO2954452</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>SO2826875</t>
+          <t>SO2954373</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>SO2826907</t>
+          <t>SO2954420</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>SO2827568</t>
+          <t>SO2954539</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>SO2827024</t>
+          <t>SO2954534</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>SO2828070</t>
+          <t>SO2954535</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>SO2826994</t>
+          <t>SO2954440</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>SO2827059</t>
+          <t>SO2956866</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>SO2827056</t>
+          <t>SO2954553</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>SO2827018</t>
+          <t>SO2954479</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>SO2827011</t>
+          <t>SO2954451</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>SO2827264</t>
+          <t>SO2954492</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>SO2826905</t>
+          <t>SO2954536</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>SO2827057</t>
+          <t>SO2956484</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>SO2827123</t>
+          <t>SO2954554</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>SO2828759</t>
+          <t>SO2954527</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>SO2827243</t>
+          <t>SO2957390</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>SO2827167</t>
+          <t>SO2954759</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>SO2827244</t>
+          <t>SO2954635</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>SO2827216</t>
+          <t>SO2954569</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>SO2827295</t>
+          <t>SO2954601</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>SO2827301</t>
+          <t>SO2954698</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>SO2827300</t>
+          <t>SO2954747</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>SO2827297</t>
+          <t>SO2954665</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>SO2830741</t>
+          <t>SO2954764</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>SO2827490</t>
+          <t>SO2954760</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>SO2827466</t>
+          <t>SO2954904</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>SO2827624</t>
+          <t>SO2954818</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>SO2827522</t>
+          <t>SO2954855</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>SO2827521</t>
+          <t>SO2954876</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>SO2827626</t>
+          <t>SO2954829</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>SO2827669</t>
+          <t>SO2954902</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>SO2827622</t>
+          <t>SO2954830</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>SO2827731</t>
+          <t>SO2954783</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>SO2827798</t>
+          <t>SO2954805</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>SO2827702</t>
+          <t>SO2954877</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>SO2827781</t>
+          <t>SO2954796</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>SO2827960</t>
+          <t>SO2985427</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>SO2827961</t>
+          <t>SO2954903</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>SO2827963</t>
+          <t>SO2954915</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>SO2827958</t>
+          <t>SO2954956</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>SO2827951</t>
+          <t>SO2955654</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>SO2827977</t>
+          <t>SO2954926</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>SO2828026</t>
+          <t>SO2954958</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>SO2828076</t>
+          <t>SO2955001</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>SO2828071</t>
+          <t>SO2955010</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>SO2835570</t>
+          <t>SO2955176</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>SO2828083</t>
+          <t>SO2955065</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>SO2844870</t>
+          <t>SO2955051</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>SO2830134</t>
+          <t>SO2955033</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>SO2828121</t>
+          <t>SO2984822</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>SO2830947</t>
+          <t>SO2955175</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>SO2828258</t>
+          <t>SO2958883</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>SO2828218</t>
+          <t>SO2955280</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>SO2828247</t>
+          <t>SO2955115</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>SO2828268</t>
+          <t>SO2955196</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>SO2828346</t>
+          <t>SO2955209</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>SO2828384</t>
+          <t>SO2955266</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>SO2830820</t>
+          <t>SO2955211</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>SO2828367</t>
+          <t>SO2955185</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>SO2828523</t>
+          <t>SO2955195</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>SO2828448</t>
+          <t>SO2955526</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>SO2828451</t>
+          <t>SO3002628</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>SO2828473</t>
+          <t>SO2956073</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>SO2828486</t>
+          <t>SO2955430</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>SO2828499</t>
+          <t>SO2955512</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>SO2842260</t>
+          <t>SO2955465</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>SO2828547</t>
+          <t>SO2955565</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>SO2828637</t>
+          <t>SO2955542</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>SO2828746</t>
+          <t>SO2955518</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>SO2828737</t>
+          <t>SO2956437</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>SO2829548</t>
+          <t>SO2955492</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>SO2828788</t>
+          <t>SO2957007</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>SO2828856</t>
+          <t>SO2957045</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>SO2828873</t>
+          <t>SO2992653</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>SO2828791</t>
+          <t>SO2955623</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>SO2828855</t>
+          <t>SO2955598</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>SO2828967</t>
+          <t>SO2955541</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>SO2828964</t>
+          <t>SO2955584</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>SO2828985</t>
+          <t>SO2955600</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>SO2828947</t>
+          <t>SO2956072</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>SO2828977</t>
+          <t>SO2955705</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>SO2828997</t>
+          <t>SO2955703</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>SO2829128</t>
+          <t>SO2955653</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>SO2828999</t>
+          <t>SO2997822</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>SO2829008</t>
+          <t>SO2955702</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>SO2829038</t>
+          <t>SO2955756</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>SO2829169</t>
+          <t>SO2955812</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>SO2829126</t>
+          <t>SO2955730</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>SO2829917</t>
+          <t>SO2955665</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>SO2829149</t>
+          <t>SO2955708</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>SO2829162</t>
+          <t>SO2997820</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>SO2829135</t>
+          <t>SO2955841</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>SO2829127</t>
+          <t>SO2955818</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>SO2829558</t>
+          <t>SO2955826</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>SO2829275</t>
+          <t>SO2955910</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>SO2829182</t>
+          <t>SO2955909</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>SO2829307</t>
+          <t>SO2956107</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>SO2829303</t>
+          <t>SO2956425</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>SO2829550</t>
+          <t>SO2955936</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>SO2829273</t>
+          <t>SO2955946</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>SO2829345</t>
+          <t>SO2955911</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>SO2829348</t>
+          <t>SO2955986</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>SO2829374</t>
+          <t>SO2982005</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>SO2829422</t>
+          <t>SO2955967</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>SO2829360</t>
+          <t>SO2957893</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>SO2829420</t>
+          <t>SO2955970</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>SO2829458</t>
+          <t>SO2956070</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>SO2829561</t>
+          <t>SO2955945</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>SO2829583</t>
+          <t>SO2955991</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>SO2829580</t>
+          <t>SO2955969</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>SO2829684</t>
+          <t>SO2957949</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>SO2829568</t>
+          <t>SO2956027</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>SO2829687</t>
+          <t>SO2956024</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>SO2829725</t>
+          <t>SO2956126</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>SO2829681</t>
+          <t>SO2995655</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>SO2829682</t>
+          <t>SO2983816</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>SO2829680</t>
+          <t>SO2956093</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>SO2829713</t>
+          <t>SO2956080</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>SO2829814</t>
+          <t>SO2956088</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>SO2829833</t>
+          <t>SO2988253</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>SO2829735</t>
+          <t>SO2956136</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>SO2829869</t>
+          <t>SO2956054</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>SO2829970</t>
+          <t>SO2957644</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>SO2829855</t>
+          <t>SO2956180</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>SO2829948</t>
+          <t>SO2956167</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>SO2829936</t>
+          <t>SO2956254</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>SO2830842</t>
+          <t>SO2956207</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>SO2829968</t>
+          <t>SO2956205</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>SO2829947</t>
+          <t>SO2956193</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>SO2829982</t>
+          <t>SO2959590</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>SO2831381</t>
+          <t>SO2956179</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>SO2829969</t>
+          <t>SO2956303</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>SO2829954</t>
+          <t>SO2956647</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>SO2830793</t>
+          <t>SO2956241</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>SO2830061</t>
+          <t>SO2956242</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>SO2839126</t>
+          <t>SO2956413</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>SO2864031</t>
+          <t>SO2956356</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>SO2847323</t>
+          <t>SO2956410</t>
         </is>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>SO2854180</t>
+          <t>SO2956255</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>SO2854912</t>
+          <t>SO2956524</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>SO2861663</t>
+          <t>SO2956412</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>SO2839182</t>
+          <t>SO2957653</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>SO2838733</t>
+          <t>SO2957316</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>SO2854447</t>
+          <t>SO2956811</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>SO2854176</t>
+          <t>SO2956554</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>SO2854541</t>
+          <t>SO2957660</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>SO2854913</t>
+          <t>SO2956451</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>SO2853985</t>
+          <t>SO2956570</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>SO2843899</t>
+          <t>SO2956499</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>SO2839643</t>
+          <t>SO2956613</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>SO2843755</t>
+          <t>SO2956611</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>SO2842727</t>
+          <t>SO2956544</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>SO2840468</t>
+          <t>SO2956557</t>
         </is>
       </c>
     </row>

--- a/invoices_functions/files/invoices/so_invoices2.xlsx
+++ b/invoices_functions/files/invoices/so_invoices2.xlsx
@@ -443,6993 +443,6993 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SO2935718</t>
+          <t>SO3092297</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SO2935978</t>
+          <t>SO3092312</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SO2935774</t>
+          <t>SO3092322</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SO2935855</t>
+          <t>SO3092334</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SO2935771</t>
+          <t>SO3092362</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SO2935775</t>
+          <t>SO3092347</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SO2935875</t>
+          <t>SO3092409</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SO2935908</t>
+          <t>SO3092402</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SO2935909</t>
+          <t>SO3092411</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SO2935898</t>
+          <t>SO3092434</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SO2935934</t>
+          <t>SO3092666</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SO2935952</t>
+          <t>SO3092439</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SO2937879</t>
+          <t>SO3092481</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SO2936769</t>
+          <t>SO3092475</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SO2936011</t>
+          <t>SO3092500</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SO2936005</t>
+          <t>SO3092504</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SO2936026</t>
+          <t>SO3094239</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SO2936025</t>
+          <t>SO3092498</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SO2936175</t>
+          <t>SO3092579</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SO2936146</t>
+          <t>SO3092524</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SO2941298</t>
+          <t>SO3092523</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SO2936220</t>
+          <t>SO3092599</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SO2936257</t>
+          <t>SO3092633</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SO2936865</t>
+          <t>SO3092694</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SO2936258</t>
+          <t>SO3092961</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SO2936301</t>
+          <t>SO3092759</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SO2936238</t>
+          <t>SO3092721</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SO2936429</t>
+          <t>SO3092794</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SO2936484</t>
+          <t>SO3092785</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SO2936483</t>
+          <t>SO3092791</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SO2936525</t>
+          <t>SO3093012</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SO2936604</t>
+          <t>SO3092811</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SO2936588</t>
+          <t>SO3092803</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SO2936606</t>
+          <t>SO3092778</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SO2936766</t>
+          <t>SO3092887</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SO2936631</t>
+          <t>SO3092739</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SO2936642</t>
+          <t>SO3092685</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SO2936702</t>
+          <t>SO3105318</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SO2936775</t>
+          <t>SO3095749</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SO2937369</t>
+          <t>SO3092829</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SO2944665</t>
+          <t>SO3092868</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SO2936751</t>
+          <t>SO3092855</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SO2936983</t>
+          <t>SO3092874</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SO2936794</t>
+          <t>SO3095643</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SO2936797</t>
+          <t>SO3092930</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SO2936897</t>
+          <t>SO3138990</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SO2939292</t>
+          <t>SO3093233</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SO2936969</t>
+          <t>SO3093041</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SO2936940</t>
+          <t>SO3123556</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SO2950698</t>
+          <t>SO3093106</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SO2937008</t>
+          <t>SO3093086</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SO2937664</t>
+          <t>SO3093068</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SO2936968</t>
+          <t>SO3093088</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SO2937019</t>
+          <t>SO3094361</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SO2937039</t>
+          <t>SO3093061</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SO2937038</t>
+          <t>SO3094534</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SO2938179</t>
+          <t>SO3093211</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SO2937018</t>
+          <t>SO3093251</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SO2937072</t>
+          <t>SO3093163</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SO2937060</t>
+          <t>SO3093186</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SO2937097</t>
+          <t>SO3101511</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SO2937104</t>
+          <t>SO3093170</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SO2937098</t>
+          <t>SO3113863</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SO2937017</t>
+          <t>SO3097059</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SO2937413</t>
+          <t>SO3093213</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SO2937103</t>
+          <t>SO3093220</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SO2937118</t>
+          <t>SO3093197</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SO2937128</t>
+          <t>SO3093221</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SO2937210</t>
+          <t>SO3093258</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SO2937182</t>
+          <t>SO3093295</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SO2937199</t>
+          <t>SO3093338</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SO2937260</t>
+          <t>SO3093297</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SO2939177</t>
+          <t>SO3093390</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SO2937375</t>
+          <t>SO3093326</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SO2937372</t>
+          <t>SO3093387</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SO2937420</t>
+          <t>SO3093412</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SO2955709</t>
+          <t>SO3093484</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SO2937374</t>
+          <t>SO3093486</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SO2937394</t>
+          <t>SO3093521</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SO2937368</t>
+          <t>SO3093485</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SO2937393</t>
+          <t>SO3093522</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SO2937392</t>
+          <t>SO3093660</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SO2937434</t>
+          <t>SO3093901</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SO2937445</t>
+          <t>SO3093528</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SO2937453</t>
+          <t>SO3096149</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SO2938010</t>
+          <t>SO3093563</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SO2937489</t>
+          <t>SO3093565</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SO2937499</t>
+          <t>SO3093599</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SO2937490</t>
+          <t>SO3093564</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SO2937492</t>
+          <t>SO3093620</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SO2937578</t>
+          <t>SO3093639</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SO2937513</t>
+          <t>SO3093603</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SO2937547</t>
+          <t>SO3093667</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SO2937550</t>
+          <t>SO3093714</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SO2939612</t>
+          <t>SO3093750</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SO2937827</t>
+          <t>SO3093648</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SO2937617</t>
+          <t>SO3093691</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SO2937616</t>
+          <t>SO3093713</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SO2937639</t>
+          <t>SO3093706</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SO2937758</t>
+          <t>SO3093712</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SO2937698</t>
+          <t>SO3093702</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SO2937736</t>
+          <t>SO3093708</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SO2937839</t>
+          <t>SO3093748</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SO2937911</t>
+          <t>SO3095489</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SO2943951</t>
+          <t>SO3093763</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SO2938730</t>
+          <t>SO3093771</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SO2938192</t>
+          <t>SO3093889</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SO2938059</t>
+          <t>SO3093847</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SO2939176</t>
+          <t>SO3105849</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SO2938204</t>
+          <t>SO3093865</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SO2938376</t>
+          <t>SO3093838</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SO2938261</t>
+          <t>SO3094797</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SO2938780</t>
+          <t>SO3093905</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SO2938318</t>
+          <t>SO3093907</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SO2938319</t>
+          <t>SO3093967</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SO2938328</t>
+          <t>SO3093964</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SO2938327</t>
+          <t>SO3093969</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SO2938385</t>
+          <t>SO3094011</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SO2938366</t>
+          <t>SO3094058</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SO2938386</t>
+          <t>SO3094022</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SO2988096</t>
+          <t>SO3094074</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SO2938362</t>
+          <t>SO3094057</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SO2938365</t>
+          <t>SO3094089</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SO2938363</t>
+          <t>SO3094119</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SO2938567</t>
+          <t>SO3094084</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SO2938522</t>
+          <t>SO3094159</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SO2938477</t>
+          <t>SO3094126</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SO2940293</t>
+          <t>SO3094157</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SO2938455</t>
+          <t>SO3096889</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SO2938410</t>
+          <t>SO3094165</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SO2938565</t>
+          <t>SO3094158</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SO2981005</t>
+          <t>SO3094193</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SO2938542</t>
+          <t>SO3094227</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SO2938519</t>
+          <t>SO3094279</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SO2938566</t>
+          <t>SO3094308</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SO2938973</t>
+          <t>SO3094316</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SO2940867</t>
+          <t>SO3094390</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SO2938555</t>
+          <t>SO3094394</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SO2938575</t>
+          <t>SO3094439</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SO2938611</t>
+          <t>SO3094392</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SO2938609</t>
+          <t>SO3095423</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SO2938645</t>
+          <t>SO3094417</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SO2938624</t>
+          <t>SO3099008</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SO2939848</t>
+          <t>SO3094499</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SO2938720</t>
+          <t>SO3094553</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SO2938719</t>
+          <t>SO3094506</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SO2938726</t>
+          <t>SO3094512</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SO2938653</t>
+          <t>SO3094549</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SO2938677</t>
+          <t>SO3094511</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SO2938743</t>
+          <t>SO3094981</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SO2942205</t>
+          <t>SO3094619</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SO2938767</t>
+          <t>SO3094592</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SO2938756</t>
+          <t>SO3094617</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SO2938734</t>
+          <t>SO3094677</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SO2938807</t>
+          <t>SO3094668</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SO2938769</t>
+          <t>SO3094673</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SO2938781</t>
+          <t>SO3094711</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SO2938796</t>
+          <t>SO3094847</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SO2954282</t>
+          <t>SO3094732</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SO2938797</t>
+          <t>SO3095608</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SO2938844</t>
+          <t>SO3094650</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SO2938834</t>
+          <t>SO3099157</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SO2938886</t>
+          <t>SO3094773</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SO2938843</t>
+          <t>SO3094871</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SO2942297</t>
+          <t>SO3094864</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>SO2938912</t>
+          <t>SO3095324</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SO2938911</t>
+          <t>SO3094914</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SO2938986</t>
+          <t>SO3094880</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SO2938961</t>
+          <t>SO3094940</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SO2938962</t>
+          <t>SO3094968</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SO2939013</t>
+          <t>SO3094965</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SO2939231</t>
+          <t>SO3094962</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SO2939060</t>
+          <t>SO3095607</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>SO2939097</t>
+          <t>SO3095181</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SO2939058</t>
+          <t>SO3094988</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SO2939081</t>
+          <t>SO3094999</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SO2939051</t>
+          <t>SO3095064</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SO2939141</t>
+          <t>SO3095048</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SO2939098</t>
+          <t>SO3095069</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SO2939153</t>
+          <t>SO3095083</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SO2939174</t>
+          <t>SO3095102</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SO2939269</t>
+          <t>SO3095178</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SO2939142</t>
+          <t>SO3096027</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SO2939175</t>
+          <t>SO3095245</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SO2939214</t>
+          <t>SO3096068</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SO2939275</t>
+          <t>SO3095233</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SO2939213</t>
+          <t>SO3095260</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SO2939301</t>
+          <t>SO3095224</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SO2939315</t>
+          <t>SO3095290</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SO2939334</t>
+          <t>SO3095275</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SO2939295</t>
+          <t>SO3132209</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SO2939354</t>
+          <t>SO3111220</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SO2939335</t>
+          <t>SO3095274</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SO2939836</t>
+          <t>SO3095344</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SO2939356</t>
+          <t>SO3095283</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SO2939407</t>
+          <t>SO3116911</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SO2939410</t>
+          <t>SO3095294</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SO2939426</t>
+          <t>SO3095287</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SO2939445</t>
+          <t>SO3095327</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SO2939516</t>
+          <t>SO3095311</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SO2939661</t>
+          <t>SO3095309</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>SO2939589</t>
+          <t>SO3095358</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SO2939638</t>
+          <t>SO3095328</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>SO2939651</t>
+          <t>SO3095427</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SO2956081</t>
+          <t>SO3095357</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>SO2957992</t>
+          <t>SO3095369</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>SO2939645</t>
+          <t>SO3095404</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>SO2941256</t>
+          <t>SO3095382</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SO2994607</t>
+          <t>SO3095403</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>SO2939675</t>
+          <t>SO3095395</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SO2939827</t>
+          <t>SO3095437</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>SO2941375</t>
+          <t>SO3095428</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SO2940689</t>
+          <t>SO3095468</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>SO2939858</t>
+          <t>SO3095484</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SO2939901</t>
+          <t>SO3095434</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>SO2939980</t>
+          <t>SO3095456</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SO2944599</t>
+          <t>SO3095503</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>SO2940089</t>
+          <t>SO3095502</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>SO2958828</t>
+          <t>SO3095516</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>SO2940205</t>
+          <t>SO3095563</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>SO2940226</t>
+          <t>SO3095610</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>SO2940189</t>
+          <t>SO3095524</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>SO2955863</t>
+          <t>SO3095605</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SO2940225</t>
+          <t>SO3095575</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SO2940264</t>
+          <t>SO3095609</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>SO2940428</t>
+          <t>SO3095637</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>SO2942029</t>
+          <t>SO3095614</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SO2940363</t>
+          <t>SO3095601</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>SO2940355</t>
+          <t>SO3095738</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>SO2940407</t>
+          <t>SO3095679</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SO2940458</t>
+          <t>SO3095645</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>SO2940408</t>
+          <t>SO3095683</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>SO2940387</t>
+          <t>SO3095697</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>SO2940480</t>
+          <t>SO3098133</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>SO2940409</t>
+          <t>SO3095723</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SO2940406</t>
+          <t>SO3095796</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SO2940426</t>
+          <t>SO3095797</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SO2940436</t>
+          <t>SO3095885</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SO2940444</t>
+          <t>SO3095878</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>SO2940532</t>
+          <t>SO3095910</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>SO2940487</t>
+          <t>SO3095920</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>SO2940454</t>
+          <t>SO3095950</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>SO2959577</t>
+          <t>SO3095918</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>SO2940513</t>
+          <t>SO3096409</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SO2943702</t>
+          <t>SO3095978</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>SO2941257</t>
+          <t>SO3095941</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SO2940550</t>
+          <t>SO3095946</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>SO2940561</t>
+          <t>SO3097295</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>SO2940565</t>
+          <t>SO3095969</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>SO2940631</t>
+          <t>SO3096079</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>SO2940579</t>
+          <t>SO3096000</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SO2940720</t>
+          <t>SO3096045</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>SO2940633</t>
+          <t>SO3096026</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SO2940675</t>
+          <t>SO3096075</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>SO2940661</t>
+          <t>SO3096080</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>SO2940721</t>
+          <t>SO3096044</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>SO2940733</t>
+          <t>SO3096078</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>SO2940709</t>
+          <t>SO3096113</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SO2940710</t>
+          <t>SO3096105</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SO2940752</t>
+          <t>SO3096132</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>SO2940772</t>
+          <t>SO3096129</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SO2940825</t>
+          <t>SO3096162</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>SO2940803</t>
+          <t>SO3096131</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>SO2940813</t>
+          <t>SO3096233</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SO2940794</t>
+          <t>SO3096240</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SO2940836</t>
+          <t>SO3096772</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SO2941251</t>
+          <t>SO3096340</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SO2941412</t>
+          <t>SO3096368</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>SO2941056</t>
+          <t>SO3096427</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>SO2941057</t>
+          <t>SO3096448</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>SO2941071</t>
+          <t>SO3096975</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>SO2941134</t>
+          <t>SO3096315</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SO2941079</t>
+          <t>SO3096289</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>SO2941054</t>
+          <t>SO3097467</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SO2963099</t>
+          <t>SO3097339</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>SO2941116</t>
+          <t>SO3113017</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>SO2941128</t>
+          <t>SO3096322</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>SO2941151</t>
+          <t>SO3096476</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>SO2941133</t>
+          <t>SO3096485</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SO2941162</t>
+          <t>SO3096535</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>SO2941161</t>
+          <t>SO3096557</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>SO2941152</t>
+          <t>SO3096565</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>SO2941145</t>
+          <t>SO3096631</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SO2941144</t>
+          <t>SO3096589</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SO2941154</t>
+          <t>SO3096618</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>SO2941175</t>
+          <t>SO3096620</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>SO2941205</t>
+          <t>SO3099170</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SO2941196</t>
+          <t>SO3096648</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>SO2941188</t>
+          <t>SO3100413</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SO2941281</t>
+          <t>SO3096603</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>SO2941236</t>
+          <t>SO3096611</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>SO2941238</t>
+          <t>SO3106066</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>SO2942347</t>
+          <t>SO3102908</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SO2941293</t>
+          <t>SO3096627</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>SO2941344</t>
+          <t>SO3096699</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>SO2941300</t>
+          <t>SO3096780</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>SO2941348</t>
+          <t>SO3096658</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SO2941362</t>
+          <t>SO3096785</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>SO2941382</t>
+          <t>SO3096733</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SO2941855</t>
+          <t>SO3096731</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SO2944793</t>
+          <t>SO3110317</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>SO2941429</t>
+          <t>SO3097859</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>SO2941505</t>
+          <t>SO3096738</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>SO2941490</t>
+          <t>SO3096737</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>SO2941506</t>
+          <t>SO3096924</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>SO2941621</t>
+          <t>SO3096824</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>SO2941523</t>
+          <t>SO3096834</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>SO2941538</t>
+          <t>SO3096925</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SO2941854</t>
+          <t>SO3096910</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>SO2941823</t>
+          <t>SO3096886</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>SO2945017</t>
+          <t>SO3096887</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>SO2956542</t>
+          <t>SO3096847</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>SO2941981</t>
+          <t>SO3096857</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SO2941911</t>
+          <t>SO3096892</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SO2941919</t>
+          <t>SO3096912</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>SO2941935</t>
+          <t>SO3096933</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>SO2941968</t>
+          <t>SO3099081</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>SO2941971</t>
+          <t>SO3096958</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SO2941980</t>
+          <t>SO3097058</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SO2941969</t>
+          <t>SO3097723</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>SO2943086</t>
+          <t>SO3097002</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SO2941996</t>
+          <t>SO3096996</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>SO2942015</t>
+          <t>SO3097036</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SO2942030</t>
+          <t>SO3099844</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>SO2942018</t>
+          <t>SO3097087</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>SO2942162</t>
+          <t>SO3097935</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>SO2942107</t>
+          <t>SO3097088</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>SO2942108</t>
+          <t>SO3097732</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SO2942127</t>
+          <t>SO3097140</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>SO2942164</t>
+          <t>SO3097138</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>SO2942175</t>
+          <t>SO3097168</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>SO2942279</t>
+          <t>SO3097197</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SO2942275</t>
+          <t>SO3097159</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>SO2942348</t>
+          <t>SO3097296</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>SO2942309</t>
+          <t>SO3097245</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>SO2942268</t>
+          <t>SO3097256</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>SO2942254</t>
+          <t>SO3097291</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>SO2942276</t>
+          <t>SO3097274</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>SO2943722</t>
+          <t>SO3097272</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>SO2942324</t>
+          <t>SO3097220</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>SO2942339</t>
+          <t>SO3097246</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SO2942440</t>
+          <t>SO3097273</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>SO2965126</t>
+          <t>SO3097271</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>SO2942474</t>
+          <t>SO3097522</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>SO2942424</t>
+          <t>SO3097377</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>SO2942515</t>
+          <t>SO3097375</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>SO2943688</t>
+          <t>SO3099593</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>SO2942449</t>
+          <t>SO3097323</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>SO2942451</t>
+          <t>SO3097343</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>SO2942512</t>
+          <t>SO3097330</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>SO2942509</t>
+          <t>SO3097406</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>SO2942514</t>
+          <t>SO3097341</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>SO2942529</t>
+          <t>SO3097392</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>SO2942531</t>
+          <t>SO3097373</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>SO2943563</t>
+          <t>SO3097421</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>SO2942559</t>
+          <t>SO3097353</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>SO2942568</t>
+          <t>SO3097374</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>SO2942567</t>
+          <t>SO3097407</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SO2942587</t>
+          <t>SO3097423</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SO2942586</t>
+          <t>SO3097422</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>SO2942569</t>
+          <t>SO3097472</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>SO2942581</t>
+          <t>SO3097503</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>SO2942725</t>
+          <t>SO3097497</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>SO2942782</t>
+          <t>SO3117834</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>SO2942667</t>
+          <t>SO3097451</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>SO2942674</t>
+          <t>SO3098921</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>SO2942623</t>
+          <t>SO3097502</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>SO2942685</t>
+          <t>SO3097510</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>SO2945940</t>
+          <t>SO3098264</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>SO2949436</t>
+          <t>SO3097500</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>SO2942742</t>
+          <t>SO3098607</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SO2942849</t>
+          <t>SO3097557</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>SO2942817</t>
+          <t>SO3097539</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>SO2948749</t>
+          <t>SO3097521</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SO2942908</t>
+          <t>SO3097523</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>SO2942885</t>
+          <t>SO3097597</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>SO2942868</t>
+          <t>SO3097570</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>SO2945405</t>
+          <t>SO3097587</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>SO2942923</t>
+          <t>SO3101392</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>SO2942963</t>
+          <t>SO3097596</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>SO2942921</t>
+          <t>SO3097602</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>SO2942942</t>
+          <t>SO3097739</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>SO2942960</t>
+          <t>SO3097695</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>SO2942962</t>
+          <t>SO3100870</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>SO2942993</t>
+          <t>SO3097681</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>SO2942995</t>
+          <t>SO3097719</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>SO2943100</t>
+          <t>SO3097718</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>SO2943099</t>
+          <t>SO3097767</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>SO2943087</t>
+          <t>SO3097770</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>SO2943090</t>
+          <t>SO3097748</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>SO2943130</t>
+          <t>SO3097749</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>SO2943142</t>
+          <t>SO3097751</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SO2947965</t>
+          <t>SO3097785</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>SO2962134</t>
+          <t>SO3097768</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>SO2943166</t>
+          <t>SO3097784</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>SO2943290</t>
+          <t>SO3097766</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>SO2943272</t>
+          <t>SO3097796</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>SO2943307</t>
+          <t>SO3097844</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>SO2947539</t>
+          <t>SO3097839</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>SO2943314</t>
+          <t>SO3097807</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SO2957485</t>
+          <t>SO3097976</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>SO2944161</t>
+          <t>SO3097860</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>SO2943397</t>
+          <t>SO3097855</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>SO2943412</t>
+          <t>SO3098247</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>SO2943510</t>
+          <t>SO3097903</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>SO2950120</t>
+          <t>SO3101613</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>SO2943537</t>
+          <t>SO3097978</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>SO2943541</t>
+          <t>SO3098018</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>SO2945181</t>
+          <t>SO3097993</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SO2943691</t>
+          <t>SO3098017</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>SO2943701</t>
+          <t>SO3097943</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SO2943668</t>
+          <t>SO3099518</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SO2943760</t>
+          <t>SO3097954</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>SO2946367</t>
+          <t>SO3097981</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SO2943726</t>
+          <t>SO3098068</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>SO2943734</t>
+          <t>SO3098115</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SO2943784</t>
+          <t>SO3098067</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SO2943749</t>
+          <t>SO3098122</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SO2943808</t>
+          <t>SO3098137</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SO2943762</t>
+          <t>SO3098166</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SO2943750</t>
+          <t>SO3098261</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SO2943783</t>
+          <t>SO3098207</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SO2948021</t>
+          <t>SO3098225</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SO2943782</t>
+          <t>SO3098513</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SO2943887</t>
+          <t>SO3098277</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SO2943911</t>
+          <t>SO3098295</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>SO2943989</t>
+          <t>SO3098290</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>SO2943979</t>
+          <t>SO3113580</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SO2943996</t>
+          <t>SO3098156</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SO2943991</t>
+          <t>SO3102804</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SO2948330</t>
+          <t>SO3098321</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SO2946409</t>
+          <t>SO3098382</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SO2944133</t>
+          <t>SO3098344</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SO2944141</t>
+          <t>SO3098405</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>SO2944176</t>
+          <t>SO3102587</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>SO2944192</t>
+          <t>SO3098418</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>SO2944229</t>
+          <t>SO3098442</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>SO2944191</t>
+          <t>SO3098495</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>SO2944658</t>
+          <t>SO3098478</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>SO2944412</t>
+          <t>SO3098595</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>SO2951603</t>
+          <t>SO3098623</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>SO2944346</t>
+          <t>SO3099083</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>SO2944435</t>
+          <t>SO3100306</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>SO2944418</t>
+          <t>SO3098624</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>SO3005356</t>
+          <t>SO3098665</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>SO2944597</t>
+          <t>SO3098708</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>SO2944662</t>
+          <t>SO3098759</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>SO2944690</t>
+          <t>SO3099117</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>SO2947394</t>
+          <t>SO3101699</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SO2944843</t>
+          <t>SO3102418</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>SO2949648</t>
+          <t>SO3098778</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>SO2944971</t>
+          <t>SO3098776</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>SO2944801</t>
+          <t>SO3100085</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>SO2946647</t>
+          <t>SO3098779</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>SO2944892</t>
+          <t>SO3098904</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>SO2944860</t>
+          <t>SO3098862</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>SO2944878</t>
+          <t>SO3098979</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>SO2948259</t>
+          <t>SO3098861</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>SO2944973</t>
+          <t>SO3098848</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>SO2944975</t>
+          <t>SO3098981</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>SO2944952</t>
+          <t>SO3098919</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>SO2945030</t>
+          <t>SO3098934</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>SO2945061</t>
+          <t>SO3098983</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>SO2945112</t>
+          <t>SO3099025</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>SO2945050</t>
+          <t>SO3099132</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>SO2945113</t>
+          <t>SO3099111</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SO2945185</t>
+          <t>SO3099100</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>SO2945103</t>
+          <t>SO3099152</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>SO2945132</t>
+          <t>SO3118273</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>SO2945197</t>
+          <t>SO3099155</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>SO2945186</t>
+          <t>SO3099256</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SO2945194</t>
+          <t>SO3099172</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>SO2945177</t>
+          <t>SO3099210</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>SO2945211</t>
+          <t>SO3099196</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>SO2945199</t>
+          <t>SO3132607</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>SO2945195</t>
+          <t>SO3099287</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>SO2945217</t>
+          <t>SO3099254</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>SO2945304</t>
+          <t>SO3099324</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>SO2945378</t>
+          <t>SO3099209</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>SO2945372</t>
+          <t>SO3099208</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>SO2945345</t>
+          <t>SO3099298</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>SO2948189</t>
+          <t>SO3099283</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>SO2945433</t>
+          <t>SO3099263</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>SO2945472</t>
+          <t>SO3099268</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>SO2945544</t>
+          <t>SO3099266</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>SO2959209</t>
+          <t>SO3099520</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>SO2945609</t>
+          <t>SO3099328</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>SO2945627</t>
+          <t>SO3099284</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>SO2947989</t>
+          <t>SO3122197</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>SO2945610</t>
+          <t>SO3099345</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>SO2945674</t>
+          <t>SO3099397</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>SO2946857</t>
+          <t>SO3099576</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>SO2953667</t>
+          <t>SO3099464</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>SO2945772</t>
+          <t>SO3099499</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>SO2969907</t>
+          <t>SO3100748</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>SO2948210</t>
+          <t>SO3099565</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>SO2945863</t>
+          <t>SO3099561</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>SO2945883</t>
+          <t>SO3099756</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>SO2945999</t>
+          <t>SO3099335</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>SO2945972</t>
+          <t>SO3099337</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>SO2945986</t>
+          <t>SO3099527</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>SO2946014</t>
+          <t>SO3099805</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>SO2946842</t>
+          <t>SO3099581</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>SO2946087</t>
+          <t>SO3099627</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>SO2946126</t>
+          <t>SO3099694</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>SO2946088</t>
+          <t>SO3099642</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>SO2948510</t>
+          <t>SO3112589</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>SO2946155</t>
+          <t>SO3099693</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>SO2946156</t>
+          <t>SO3099888</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>SO2946143</t>
+          <t>SO3099794</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>SO2946188</t>
+          <t>SO3099797</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>SO2946219</t>
+          <t>SO3099806</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>SO2946335</t>
+          <t>SO3099789</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>SO2946274</t>
+          <t>SO3099842</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>SO2946317</t>
+          <t>SO3099904</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SO2946275</t>
+          <t>SO3099859</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SO2946408</t>
+          <t>SO3099911</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SO2946449</t>
+          <t>SO3099948</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>SO2946473</t>
+          <t>SO3100215</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>SO2946531</t>
+          <t>SO3100216</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>SO2946472</t>
+          <t>SO3100086</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>SO2946476</t>
+          <t>SO3100245</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>SO2946491</t>
+          <t>SO3100318</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>SO2946558</t>
+          <t>SO3100341</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>SO2946543</t>
+          <t>SO3100394</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>SO2965302</t>
+          <t>SO3100366</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>SO2946603</t>
+          <t>SO3100412</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>SO2946648</t>
+          <t>SO3100305</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>SO2946720</t>
+          <t>SO3102905</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>SO2946721</t>
+          <t>SO3100326</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>SO2946649</t>
+          <t>SO3100334</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>SO2946719</t>
+          <t>SO3100379</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>SO2946717</t>
+          <t>SO3100363</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>SO2946741</t>
+          <t>SO3100447</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>SO2946752</t>
+          <t>SO3100468</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>SO2946778</t>
+          <t>SO3102433</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>SO2946856</t>
+          <t>SO3100602</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>SO2946794</t>
+          <t>SO3100608</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>SO2946792</t>
+          <t>SO3114286</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>SO2946843</t>
+          <t>SO3100749</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>SO2946863</t>
+          <t>SO3100794</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>SO2946861</t>
+          <t>SO3102106</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>SO2947027</t>
+          <t>SO3100790</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>SO2963546</t>
+          <t>SO3100880</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>SO2947324</t>
+          <t>SO3100795</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>SO2948057</t>
+          <t>SO3100820</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>SO2947055</t>
+          <t>SO3101853</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>SO2947111</t>
+          <t>SO3101108</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>SO2947096</t>
+          <t>SO3102212</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>SO2947086</t>
+          <t>SO3101044</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>SO2947231</t>
+          <t>SO3101067</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>SO2947233</t>
+          <t>SO3101066</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>SO2947148</t>
+          <t>SO3101133</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>SO2947227</t>
+          <t>SO3101143</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>SO2947242</t>
+          <t>SO3101785</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>SO2947229</t>
+          <t>SO3101349</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>SO2947271</t>
+          <t>SO3105111</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>SO2947529</t>
+          <t>SO3101333</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>SO2947257</t>
+          <t>SO3101304</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>SO2947259</t>
+          <t>SO3102251</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>SO2947291</t>
+          <t>SO3101364</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>SO2947306</t>
+          <t>SO3101348</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>SO2947360</t>
+          <t>SO3101510</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>SO2948539</t>
+          <t>SO3102419</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>SO2947445</t>
+          <t>SO3101463</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>SO2947433</t>
+          <t>SO3101993</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>SO2947435</t>
+          <t>SO3101562</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>SO2948188</t>
+          <t>SO3101611</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>SO2947508</t>
+          <t>SO3101564</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>SO2947588</t>
+          <t>SO3101722</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>SO2947554</t>
+          <t>SO3102258</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>SO2947552</t>
+          <t>SO3101649</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>SO2947703</t>
+          <t>SO3101701</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>SO2998508</t>
+          <t>SO3101801</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>SO2947673</t>
+          <t>SO3101844</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>SO2947765</t>
+          <t>SO3101845</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>SO2947767</t>
+          <t>SO3101875</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>SO2949240</t>
+          <t>SO3101899</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>SO2947909</t>
+          <t>SO3102047</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>SO2947966</t>
+          <t>SO3105319</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>SO2960666</t>
+          <t>SO3102569</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>SO2948060</t>
+          <t>SO3102160</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>SO2948077</t>
+          <t>SO3102194</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>SO2948158</t>
+          <t>SO3107610</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>SO2948213</t>
+          <t>SO3102192</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>SO2950486</t>
+          <t>SO3102165</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>SO2948260</t>
+          <t>SO3102825</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>SO2948261</t>
+          <t>SO3125129</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>SO2948249</t>
+          <t>SO3102303</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>SO2948262</t>
+          <t>SO3102257</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>SO2948274</t>
+          <t>SO3102310</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>SO2948369</t>
+          <t>SO3102375</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>SO2948360</t>
+          <t>SO3102754</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>SO2948450</t>
+          <t>SO3102286</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>SO2948449</t>
+          <t>SO3102617</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>SO2948448</t>
+          <t>SO3102416</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>SO2948509</t>
+          <t>SO3102550</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>SO2949339</t>
+          <t>SO3102438</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>SO2948555</t>
+          <t>SO3102805</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>SO2952459</t>
+          <t>SO3102581</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>SO2948601</t>
+          <t>SO3102527</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>SO2948808</t>
+          <t>SO3102598</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>SO2948656</t>
+          <t>SO3102654</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>SO2948750</t>
+          <t>SO3102590</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>SO2948726</t>
+          <t>SO3102612</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>SO2948764</t>
+          <t>SO3143370</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>SO2948738</t>
+          <t>SO3102653</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>SO2948823</t>
+          <t>SO3102882</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>SO2948802</t>
+          <t>SO3102751</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>SO2948880</t>
+          <t>SO3102960</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>SO2948842</t>
+          <t>SO2341028</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>SO2948850</t>
+          <t>SO3102755</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>SO2948881</t>
+          <t>SO3102945</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>SO2954436</t>
+          <t>SO3102806</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>SO2955867</t>
+          <t>SO3104297</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>SO2949006</t>
+          <t>SO3102824</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>SO2949039</t>
+          <t>SO3102975</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>SO2952461</t>
+          <t>SO3103096</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>SO2949123</t>
+          <t>SO3103019</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>SO2949062</t>
+          <t>SO3102958</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>SO2950774</t>
+          <t>SO3102990</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>SO2949086</t>
+          <t>SO3103537</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>SO2949061</t>
+          <t>SO3103151</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>SO2993083</t>
+          <t>SO3104102</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>SO2951543</t>
+          <t>SO3103172</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>SO2949136</t>
+          <t>SO3103150</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>SO2949177</t>
+          <t>SO3126849</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>SO2949256</t>
+          <t>SO3103411</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>SO2950420</t>
+          <t>SO3103312</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>SO2949337</t>
+          <t>SO3103438</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>SO2949296</t>
+          <t>SO3104889</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>SO2949408</t>
+          <t>SO3110030</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>SO2989560</t>
+          <t>SO3103562</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>SO2949512</t>
+          <t>SO3103811</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>SO2949565</t>
+          <t>SO3103670</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>SO2950367</t>
+          <t>SO3103788</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>SO2949692</t>
+          <t>SO3107676</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>SO2949701</t>
+          <t>SO3103809</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>SO2949756</t>
+          <t>SO3103799</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>SO2949760</t>
+          <t>SO3114889</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>SO2949789</t>
+          <t>SO3103804</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>SO2949843</t>
+          <t>SO3103843</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>SO2949858</t>
+          <t>SO3103886</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>SO2949980</t>
+          <t>SO3103956</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>SO2950042</t>
+          <t>SO3105517</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>SO2950137</t>
+          <t>SO3104016</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>SO2950162</t>
+          <t>SO3117980</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>SO2950075</t>
+          <t>SO3143336</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>SO2950069</t>
+          <t>SO3104105</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>SO2950772</t>
+          <t>SO3106863</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>SO2950122</t>
+          <t>SO3104224</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>SO2955359</t>
+          <t>SO3104265</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>SO2950212</t>
+          <t>SO3104476</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>SO2950236</t>
+          <t>SO3104295</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>SO2950297</t>
+          <t>SO3104325</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>SO2950250</t>
+          <t>SO3104390</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>SO2950251</t>
+          <t>SO3104423</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>SO2950305</t>
+          <t>SO3143321</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>SO2995167</t>
+          <t>SO3104840</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>SO2951015</t>
+          <t>SO3105350</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>SO2950517</t>
+          <t>SO3104648</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>SO2950463</t>
+          <t>SO3104544</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>SO2950530</t>
+          <t>SO3104721</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>SO2950465</t>
+          <t>SO3105033</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>SO2950467</t>
+          <t>SO3104794</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>SO2963806</t>
+          <t>SO3120392</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>SO2950519</t>
+          <t>SO3104770</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>SO2950636</t>
+          <t>SO3104707</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>SO2950728</t>
+          <t>SO3104756</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>SO2950543</t>
+          <t>SO3104797</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>SO2954914</t>
+          <t>SO3134521</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>SO2950605</t>
+          <t>SO3143312</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>SO2950589</t>
+          <t>SO3105502</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>SO2960073</t>
+          <t>SO3105076</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>SO2950623</t>
+          <t>SO3104913</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>SO2950694</t>
+          <t>SO3114163</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>SO2950727</t>
+          <t>SO3104894</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>SO2950697</t>
+          <t>SO3104872</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>SO2952060</t>
+          <t>SO3104923</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>SO2950729</t>
+          <t>SO3143308</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>SO2950731</t>
+          <t>SO3105040</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>SO2950764</t>
+          <t>SO3104989</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>SO2950865</t>
+          <t>SO3105014</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>SO2950801</t>
+          <t>SO3105026</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>SO2951531</t>
+          <t>SO3105132</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>SO2950898</t>
+          <t>SO3105032</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>SO2950958</t>
+          <t>SO3105038</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>SO2950929</t>
+          <t>SO3105173</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>SO2950989</t>
+          <t>SO3105265</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>SO2950990</t>
+          <t>SO3105171</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>SO2951026</t>
+          <t>SO3105254</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>SO2951108</t>
+          <t>SO3105166</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>SO2951003</t>
+          <t>SO3105210</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>SO2951049</t>
+          <t>SO3105232</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>SO2951099</t>
+          <t>SO3105410</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>SO2951100</t>
+          <t>SO3146170</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>SO2951103</t>
+          <t>SO3109413</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>SO2951106</t>
+          <t>SO3105324</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>SO2951079</t>
+          <t>SO3105409</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>SO2951119</t>
+          <t>SO3105298</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>SO2955317</t>
+          <t>SO3107068</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>SO2951139</t>
+          <t>SO3105353</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>SO2951173</t>
+          <t>SO3105352</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>SO2951203</t>
+          <t>SO3105384</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>SO2999560</t>
+          <t>SO3105484</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>SO2951204</t>
+          <t>SO3105457</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>SO2951231</t>
+          <t>SO3105505</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>SO2951257</t>
+          <t>SO3105458</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>SO2951323</t>
+          <t>SO3105497</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>SO2951285</t>
+          <t>SO3105501</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>SO2951335</t>
+          <t>SO3127808</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>SO2951358</t>
+          <t>SO3105518</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>SO2951390</t>
+          <t>SO3130530</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>SO2951421</t>
+          <t>SO3105519</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>SO2951420</t>
+          <t>SO3105628</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>SO2951449</t>
+          <t>SO3105550</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>SO2951546</t>
+          <t>SO3105690</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>SO2951571</t>
+          <t>SO3105693</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>SO2951570</t>
+          <t>SO3105725</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>SO2952059</t>
+          <t>SO3106251</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>SO2958065</t>
+          <t>SO3108385</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>SO2969763</t>
+          <t>SO3105704</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>SO2954983</t>
+          <t>SO3105761</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>SO2951721</t>
+          <t>SO3105829</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>SO2951750</t>
+          <t>SO3105842</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>SO2991465</t>
+          <t>SO3105754</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>SO2951848</t>
+          <t>SO3105826</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>SO2985472</t>
+          <t>SO3106916</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>SO2951876</t>
+          <t>SO3105871</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>SO2951891</t>
+          <t>SO3105889</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>SO2951920</t>
+          <t>SO3106064</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>SO2951998</t>
+          <t>SO3106174</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>SO2951975</t>
+          <t>SO3106145</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>SO2952081</t>
+          <t>SO3106620</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>SO2952037</t>
+          <t>SO3106256</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>SO2952114</t>
+          <t>SO3106277</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>SO2952111</t>
+          <t>SO3106289</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>SO2952904</t>
+          <t>SO3106297</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>SO2952082</t>
+          <t>SO3106323</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>SO2964439</t>
+          <t>SO3106331</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>SO2952138</t>
+          <t>SO3106374</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>SO2952170</t>
+          <t>SO3106371</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>SO2952168</t>
+          <t>SO3106472</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>SO2952284</t>
+          <t>SO3106373</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>SO2952206</t>
+          <t>SO3106482</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>SO2952285</t>
+          <t>SO3106490</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>SO2953906</t>
+          <t>SO3106526</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>SO2952298</t>
+          <t>SO3106448</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>SO2952578</t>
+          <t>SO3106525</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>SO2952380</t>
+          <t>SO3109729</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>SO2952312</t>
+          <t>SO3106491</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>SO2952385</t>
+          <t>SO3106563</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>SO2952383</t>
+          <t>SO3106576</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>SO2952399</t>
+          <t>SO3107635</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>SO2952444</t>
+          <t>SO3106575</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>SO2952445</t>
+          <t>SO3106593</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>SO2952751</t>
+          <t>SO3106633</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>SO3001690</t>
+          <t>SO3106595</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>SO2952519</t>
+          <t>SO3146133</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>SO2952524</t>
+          <t>SO3106639</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>SO2952551</t>
+          <t>SO3106677</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>SO2952650</t>
+          <t>SO3108536</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>SO2952626</t>
+          <t>SO3125696</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>SO2952570</t>
+          <t>SO3106775</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>SO2952569</t>
+          <t>SO3106734</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>SO2952649</t>
+          <t>SO3106862</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>SO2952659</t>
+          <t>SO3106826</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>SO2952651</t>
+          <t>SO3106880</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>SO2952701</t>
+          <t>SO3106828</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>SO2952714</t>
+          <t>SO3106853</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>SO2956646</t>
+          <t>SO3106970</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>SO2952760</t>
+          <t>SO3107525</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>SO2952805</t>
+          <t>SO3108433</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>SO2952796</t>
+          <t>SO3106861</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>SO2952842</t>
+          <t>SO3106882</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>SO2952855</t>
+          <t>SO3110018</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>SO2952957</t>
+          <t>SO3106910</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>SO2952960</t>
+          <t>SO3106921</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>SO2953040</t>
+          <t>SO3106988</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>SO2953039</t>
+          <t>SO3106937</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>SO2953043</t>
+          <t>SO3107027</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>SO2957180</t>
+          <t>SO3146118</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>SO2982222</t>
+          <t>SO3107127</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>SO2953075</t>
+          <t>SO3146112</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>SO2953044</t>
+          <t>SO3107378</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>SO2953106</t>
+          <t>SO3107167</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>SO2953133</t>
+          <t>SO3146110</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>SO2953161</t>
+          <t>SO3107311</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>SO2953143</t>
+          <t>SO3110349</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>SO2955607</t>
+          <t>SO3110347</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>SO2996306</t>
+          <t>SO3113237</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>SO2953232</t>
+          <t>SO3107249</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>SO2953221</t>
+          <t>SO3107248</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>SO2953258</t>
+          <t>SO3107306</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>SO2953334</t>
+          <t>SO3107330</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>SO2953310</t>
+          <t>SO3107411</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>SO2953442</t>
+          <t>SO3146106</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>SO2953463</t>
+          <t>SO3107472</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>SO2953561</t>
+          <t>SO3107403</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>SO2953505</t>
+          <t>SO3107551</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>SO2953495</t>
+          <t>SO3107548</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>SO2953547</t>
+          <t>SO3107549</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>SO2953533</t>
+          <t>SO3109828</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>SO2953553</t>
+          <t>SO3107565</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>SO2953588</t>
+          <t>SO3107630</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>SO2953639</t>
+          <t>SO3111725</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>SO2955648</t>
+          <t>SO3107671</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>SO2953789</t>
+          <t>SO3108465</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>SO2953678</t>
+          <t>SO3107738</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>SO2953688</t>
+          <t>SO3107813</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>SO2953776</t>
+          <t>SO3108154</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>SO2954064</t>
+          <t>SO3107881</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>SO2954882</t>
+          <t>SO3108487</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>SO2953987</t>
+          <t>SO3107779</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>SO2954031</t>
+          <t>SO3107716</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>SO2954164</t>
+          <t>SO3107776</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>SO2955052</t>
+          <t>SO3107814</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>SO2954423</t>
+          <t>SO3107886</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>SO2957336</t>
+          <t>SO3108430</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>SO2954118</t>
+          <t>SO3107972</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>SO2953863</t>
+          <t>SO3107971</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>SO2953943</t>
+          <t>SO3107992</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>SO2953613</t>
+          <t>SO3110261</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>SO2953768</t>
+          <t>SO3108028</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>SO2953769</t>
+          <t>SO3108123</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>SO2953973</t>
+          <t>SO3148811</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>SO2953928</t>
+          <t>SO3108105</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>SO2953988</t>
+          <t>SO3108781</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>SO2953990</t>
+          <t>SO3108096</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>SO2954122</t>
+          <t>SO3108132</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>SO2954109</t>
+          <t>SO3108137</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>SO2955437</t>
+          <t>SO3108795</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>SO2956305</t>
+          <t>SO3108195</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>SO2953874</t>
+          <t>SO3108251</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>SO2954567</t>
+          <t>SO3108283</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>SO2954077</t>
+          <t>SO3134133</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>SO2955611</t>
+          <t>SO3108287</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>SO2954191</t>
+          <t>SO3108309</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>SO2954199</t>
+          <t>SO3108337</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>SO2954284</t>
+          <t>SO3108321</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>SO2954693</t>
+          <t>SO3108339</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>SO2954225</t>
+          <t>SO3108338</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>SO2954273</t>
+          <t>SO3108445</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>SO2954288</t>
+          <t>SO3108411</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>SO2954363</t>
+          <t>SO3108475</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>SO2954452</t>
+          <t>SO3108495</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>SO2954373</t>
+          <t>SO3108474</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>SO2954420</t>
+          <t>SO3108427</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>SO2954539</t>
+          <t>SO3108417</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>SO2954534</t>
+          <t>SO3108448</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>SO2954535</t>
+          <t>SO3108564</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>SO2954440</t>
+          <t>SO3108607</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>SO2956866</t>
+          <t>SO3108546</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>SO2954553</t>
+          <t>SO3108598</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>SO2954479</t>
+          <t>SO3108595</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>SO2954451</t>
+          <t>SO3108617</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>SO2954492</t>
+          <t>SO3108629</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>SO2954536</t>
+          <t>SO3108681</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>SO2956484</t>
+          <t>SO3111167</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>SO2954554</t>
+          <t>SO3109236</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>SO2954527</t>
+          <t>SO3108644</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>SO2957390</t>
+          <t>SO3108759</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>SO2954759</t>
+          <t>SO3111574</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>SO2954635</t>
+          <t>SO3108798</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>SO2954569</t>
+          <t>SO3108914</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>SO2954601</t>
+          <t>SO3108750</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>SO2954698</t>
+          <t>SO3108758</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>SO2954747</t>
+          <t>SO3148794</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>SO2954665</t>
+          <t>SO3108797</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>SO2954764</t>
+          <t>SO3108806</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>SO2954760</t>
+          <t>SO3108977</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>SO2954904</t>
+          <t>SO3108898</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>SO2954818</t>
+          <t>SO3108855</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>SO2954855</t>
+          <t>SO3110759</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>SO2954876</t>
+          <t>SO3108978</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>SO2954829</t>
+          <t>SO3109055</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>SO2954902</t>
+          <t>SO3109087</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>SO2954830</t>
+          <t>SO3109305</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>SO2954783</t>
+          <t>SO3109293</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>SO2954805</t>
+          <t>SO3109284</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>SO2954877</t>
+          <t>SO3109251</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>SO2954796</t>
+          <t>SO3109294</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>SO2985427</t>
+          <t>SO3109312</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>SO2954903</t>
+          <t>SO3109359</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>SO2954915</t>
+          <t>SO3109373</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>SO2954956</t>
+          <t>SO3110884</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>SO2955654</t>
+          <t>SO3109417</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>SO2954926</t>
+          <t>SO3109442</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>SO2954958</t>
+          <t>SO3109476</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>SO2955001</t>
+          <t>SO3109493</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>SO2955010</t>
+          <t>SO3109488</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>SO2955176</t>
+          <t>SO3109574</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>SO2955065</t>
+          <t>SO3109591</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>SO2955051</t>
+          <t>SO3109684</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>SO2955033</t>
+          <t>SO3109841</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>SO2984822</t>
+          <t>SO3109606</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>SO2955175</t>
+          <t>SO3109837</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>SO2958883</t>
+          <t>SO3109702</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>SO2955280</t>
+          <t>SO3109672</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>SO2955115</t>
+          <t>SO3132353</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>SO2955196</t>
+          <t>SO3110186</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>SO2955209</t>
+          <t>SO3109763</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>SO2955266</t>
+          <t>SO3150788</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>SO2955211</t>
+          <t>SO3109753</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>SO2955185</t>
+          <t>SO3109741</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>SO2955195</t>
+          <t>SO3109780</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>SO2955526</t>
+          <t>SO3109819</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>SO3002628</t>
+          <t>SO3109842</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>SO2956073</t>
+          <t>SO3150786</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>SO2955430</t>
+          <t>SO3109872</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>SO2955512</t>
+          <t>SO3109893</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>SO2955465</t>
+          <t>SO3109934</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>SO2955565</t>
+          <t>SO3113674</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>SO2955542</t>
+          <t>SO3110287</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>SO2955518</t>
+          <t>SO3109913</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>SO2956437</t>
+          <t>SO3109980</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>SO2955492</t>
+          <t>SO3109935</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>SO2957007</t>
+          <t>SO3110069</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>SO2957045</t>
+          <t>SO3109945</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>SO2992653</t>
+          <t>SO3109922</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>SO2955623</t>
+          <t>SO3109979</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>SO2955598</t>
+          <t>SO3110005</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>SO2955541</t>
+          <t>SO3109969</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>SO2955584</t>
+          <t>SO3110058</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>SO2955600</t>
+          <t>SO3110081</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>SO2956072</t>
+          <t>SO3110040</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>SO2955705</t>
+          <t>SO3110080</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>SO2955703</t>
+          <t>SO3110105</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>SO2955653</t>
+          <t>SO3110095</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>SO2997822</t>
+          <t>SO3110094</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>SO2955702</t>
+          <t>SO3110059</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>SO2955756</t>
+          <t>SO3110091</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>SO2955812</t>
+          <t>SO3110190</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>SO2955730</t>
+          <t>SO3111730</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>SO2955665</t>
+          <t>SO3110662</t>
         </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>SO2955708</t>
+          <t>SO3111378</t>
         </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>SO2997820</t>
+          <t>SO3110140</t>
         </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>SO2955841</t>
+          <t>SO3110118</t>
         </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>SO2955818</t>
+          <t>SO3110157</t>
         </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>SO2955826</t>
+          <t>SO3110185</t>
         </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
-          <t>SO2955910</t>
+          <t>SO3110219</t>
         </is>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="inlineStr">
         <is>
-          <t>SO2955909</t>
+          <t>SO3110213</t>
         </is>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>SO2956107</t>
+          <t>SO3110225</t>
         </is>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="inlineStr">
         <is>
-          <t>SO2956425</t>
+          <t>SO3150777</t>
         </is>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>SO2955936</t>
+          <t>SO3113697</t>
         </is>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="inlineStr">
         <is>
-          <t>SO2955946</t>
+          <t>SO3111545</t>
         </is>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="inlineStr">
         <is>
-          <t>SO2955911</t>
+          <t>SO3110293</t>
         </is>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>SO2955986</t>
+          <t>SO3110603</t>
         </is>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="inlineStr">
         <is>
-          <t>SO2982005</t>
+          <t>SO3110713</t>
         </is>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>SO2955967</t>
+          <t>SO3110328</t>
         </is>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="inlineStr">
         <is>
-          <t>SO2957893</t>
+          <t>SO3110329</t>
         </is>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="inlineStr">
         <is>
-          <t>SO2955970</t>
+          <t>SO3114830</t>
         </is>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="inlineStr">
         <is>
-          <t>SO2956070</t>
+          <t>SO3110436</t>
         </is>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="inlineStr">
         <is>
-          <t>SO2955945</t>
+          <t>SO3110412</t>
         </is>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="inlineStr">
         <is>
-          <t>SO2955991</t>
+          <t>SO3110431</t>
         </is>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>SO2955969</t>
+          <t>SO3110460</t>
         </is>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>SO2957949</t>
+          <t>SO3114473</t>
         </is>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>SO2956027</t>
+          <t>SO3110470</t>
         </is>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>SO2956024</t>
+          <t>SO3110478</t>
         </is>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>SO2956126</t>
+          <t>SO3127881</t>
         </is>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>SO2995655</t>
+          <t>SO3110499</t>
         </is>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>SO2983816</t>
+          <t>SO3110577</t>
         </is>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>SO2956093</t>
+          <t>SO3110566</t>
         </is>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>SO2956080</t>
+          <t>SO3111447</t>
         </is>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>SO2956088</t>
+          <t>SO3110548</t>
         </is>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>SO2988253</t>
+          <t>SO3111446</t>
         </is>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>SO2956136</t>
+          <t>SO3110720</t>
         </is>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>SO2956054</t>
+          <t>SO3150771</t>
         </is>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>SO2957644</t>
+          <t>SO3110719</t>
         </is>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>SO2956180</t>
+          <t>SO3110775</t>
         </is>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="inlineStr">
         <is>
-          <t>SO2956167</t>
+          <t>SO3110747</t>
         </is>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="inlineStr">
         <is>
-          <t>SO2956254</t>
+          <t>SO3112900</t>
         </is>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="inlineStr">
         <is>
-          <t>SO2956207</t>
+          <t>SO3112918</t>
         </is>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="inlineStr">
         <is>
-          <t>SO2956205</t>
+          <t>SO3110789</t>
         </is>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>SO2956193</t>
+          <t>SO3110824</t>
         </is>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="inlineStr">
         <is>
-          <t>SO2959590</t>
+          <t>SO3110852</t>
         </is>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>SO2956179</t>
+          <t>SO3110870</t>
         </is>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="inlineStr">
         <is>
-          <t>SO2956303</t>
+          <t>SO3110938</t>
         </is>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="inlineStr">
         <is>
-          <t>SO2956647</t>
+          <t>SO3110833</t>
         </is>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>SO2956241</t>
+          <t>SO3150761</t>
         </is>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="inlineStr">
         <is>
-          <t>SO2956242</t>
+          <t>SO3110907</t>
         </is>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>SO2956413</t>
+          <t>SO3110931</t>
         </is>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>SO2956356</t>
+          <t>SO3122268</t>
         </is>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>SO2956410</t>
+          <t>SO3126732</t>
         </is>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>SO2956255</t>
+          <t>SO3110964</t>
         </is>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>SO2956524</t>
+          <t>SO3115360</t>
         </is>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>SO2956412</t>
+          <t>SO3110974</t>
         </is>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="inlineStr">
         <is>
-          <t>SO2957653</t>
+          <t>SO3111040</t>
         </is>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="inlineStr">
         <is>
-          <t>SO2957316</t>
+          <t>SO3111077</t>
         </is>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>SO2956811</t>
+          <t>SO3111066</t>
         </is>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="inlineStr">
         <is>
-          <t>SO2956554</t>
+          <t>SO3111170</t>
         </is>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>SO2957660</t>
+          <t>SO3111085</t>
         </is>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="inlineStr">
         <is>
-          <t>SO2956451</t>
+          <t>SO3111169</t>
         </is>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="inlineStr">
         <is>
-          <t>SO2956570</t>
+          <t>SO3134651</t>
         </is>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>SO2956499</t>
+          <t>SO3111240</t>
         </is>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="inlineStr">
         <is>
-          <t>SO2956613</t>
+          <t>SO3111205</t>
         </is>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="inlineStr">
         <is>
-          <t>SO2956611</t>
+          <t>SO3111219</t>
         </is>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="inlineStr">
         <is>
-          <t>SO2956544</t>
+          <t>SO3111315</t>
         </is>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="inlineStr">
         <is>
-          <t>SO2956557</t>
+          <t>SO3111402</t>
         </is>
       </c>
     </row>
